--- a/cod_carrera.xlsx
+++ b/cod_carrera.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1805" uniqueCount="1805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1664" uniqueCount="1664">
   <si>
     <t>ID_CARRERA</t>
   </si>
@@ -1682,147 +1682,6 @@
     <t>554</t>
   </si>
   <si>
-    <t>555</t>
-  </si>
-  <si>
-    <t>556</t>
-  </si>
-  <si>
-    <t>557</t>
-  </si>
-  <si>
-    <t>558</t>
-  </si>
-  <si>
-    <t>559</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>578</t>
-  </si>
-  <si>
-    <t>579</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>582</t>
-  </si>
-  <si>
-    <t>583</t>
-  </si>
-  <si>
-    <t>584</t>
-  </si>
-  <si>
-    <t>585</t>
-  </si>
-  <si>
-    <t>586</t>
-  </si>
-  <si>
-    <t>587</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>589</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>592</t>
-  </si>
-  <si>
-    <t>593</t>
-  </si>
-  <si>
-    <t>594</t>
-  </si>
-  <si>
-    <t>595</t>
-  </si>
-  <si>
-    <t>596</t>
-  </si>
-  <si>
-    <t>597</t>
-  </si>
-  <si>
-    <t>598</t>
-  </si>
-  <si>
-    <t>599</t>
-  </si>
-  <si>
-    <t>600</t>
-  </si>
-  <si>
-    <t>601</t>
-  </si>
-  <si>
     <t>0001</t>
   </si>
   <si>
@@ -3485,147 +3344,6 @@
     <t>0554</t>
   </si>
   <si>
-    <t>0555</t>
-  </si>
-  <si>
-    <t>0556</t>
-  </si>
-  <si>
-    <t>0557</t>
-  </si>
-  <si>
-    <t>0558</t>
-  </si>
-  <si>
-    <t>0559</t>
-  </si>
-  <si>
-    <t>0560</t>
-  </si>
-  <si>
-    <t>0561</t>
-  </si>
-  <si>
-    <t>0562</t>
-  </si>
-  <si>
-    <t>0563</t>
-  </si>
-  <si>
-    <t>0564</t>
-  </si>
-  <si>
-    <t>0565</t>
-  </si>
-  <si>
-    <t>0566</t>
-  </si>
-  <si>
-    <t>0567</t>
-  </si>
-  <si>
-    <t>0568</t>
-  </si>
-  <si>
-    <t>0569</t>
-  </si>
-  <si>
-    <t>0570</t>
-  </si>
-  <si>
-    <t>0571</t>
-  </si>
-  <si>
-    <t>0572</t>
-  </si>
-  <si>
-    <t>0573</t>
-  </si>
-  <si>
-    <t>0574</t>
-  </si>
-  <si>
-    <t>0575</t>
-  </si>
-  <si>
-    <t>0576</t>
-  </si>
-  <si>
-    <t>0577</t>
-  </si>
-  <si>
-    <t>0578</t>
-  </si>
-  <si>
-    <t>0579</t>
-  </si>
-  <si>
-    <t>0580</t>
-  </si>
-  <si>
-    <t>0581</t>
-  </si>
-  <si>
-    <t>0582</t>
-  </si>
-  <si>
-    <t>0583</t>
-  </si>
-  <si>
-    <t>0584</t>
-  </si>
-  <si>
-    <t>0585</t>
-  </si>
-  <si>
-    <t>0586</t>
-  </si>
-  <si>
-    <t>0587</t>
-  </si>
-  <si>
-    <t>0588</t>
-  </si>
-  <si>
-    <t>0589</t>
-  </si>
-  <si>
-    <t>0590</t>
-  </si>
-  <si>
-    <t>0591</t>
-  </si>
-  <si>
-    <t>0592</t>
-  </si>
-  <si>
-    <t>0593</t>
-  </si>
-  <si>
-    <t>0594</t>
-  </si>
-  <si>
-    <t>0595</t>
-  </si>
-  <si>
-    <t>0596</t>
-  </si>
-  <si>
-    <t>0597</t>
-  </si>
-  <si>
-    <t>0598</t>
-  </si>
-  <si>
-    <t>0599</t>
-  </si>
-  <si>
-    <t>0600</t>
-  </si>
-  <si>
-    <t>0601</t>
-  </si>
-  <si>
     <t>ACTUACION</t>
   </si>
   <si>
@@ -3635,9 +3353,6 @@
     <t>ADMINISTRACION DE EMPRESAS DE TURISMO</t>
   </si>
   <si>
-    <t>ADMINISTRACION DE NEGOCIOS TURISTICOS Y HOTELEROS</t>
-  </si>
-  <si>
     <t>ADMINISTRACION DE SERVICIOS</t>
   </si>
   <si>
@@ -3662,9 +3377,6 @@
     <t>ANIMACION DIGITAL</t>
   </si>
   <si>
-    <t>ANIMACION DIGITAL 3D</t>
-  </si>
-  <si>
     <t>ANTROPOLOGIA</t>
   </si>
   <si>
@@ -3677,9 +3389,6 @@
     <t>ARQUITECTURA</t>
   </si>
   <si>
-    <t>ARQUITECTURA DEL PAISAJE</t>
-  </si>
-  <si>
     <t>ARTE</t>
   </si>
   <si>
@@ -3815,24 +3524,15 @@
     <t>CIENCIAS DE LA FAMILIA</t>
   </si>
   <si>
-    <t>CIENCIAS DEL DEPORTE Y ACTIVIDAD FISICA</t>
-  </si>
-  <si>
     <t>CIENCIAS FISICAS</t>
   </si>
   <si>
     <t>CIENCIAS POLITICAS Y ADMINISTRATIVAS</t>
   </si>
   <si>
-    <t>CIENCIAS POLITICAS Y GESTION PUBLICA</t>
-  </si>
-  <si>
     <t>CINE</t>
   </si>
   <si>
-    <t>CINE Y COMUNICACION AUDIOVISUAL</t>
-  </si>
-  <si>
     <t>CINE Y TELEVISION</t>
   </si>
   <si>
@@ -3845,9 +3545,6 @@
     <t>COLLEGE CIENCIAS SOCIALES (LICENCIATURA)</t>
   </si>
   <si>
-    <t>COMPOSICION MUSICAL</t>
-  </si>
-  <si>
     <t>COMUNICACION AUDIOVISUAL</t>
   </si>
   <si>
@@ -3857,9 +3554,6 @@
     <t>CONSTRUCCION CIVIL Y LICENCIATURA EN CONSTRUCCION CIVIL</t>
   </si>
   <si>
-    <t>CONTABILIDAD Y AUDITORIA</t>
-  </si>
-  <si>
     <t>CONTADOR AUDITOR</t>
   </si>
   <si>
@@ -3878,9 +3572,6 @@
     <t>CONTADOR PUBLICO Y CONTADOR AUDITOR</t>
   </si>
   <si>
-    <t>DANZA</t>
-  </si>
-  <si>
     <t>DERECHO</t>
   </si>
   <si>
@@ -3902,9 +3593,6 @@
     <t>DISEÑO (INGRESO COMUN)</t>
   </si>
   <si>
-    <t>DISEÑO CROSSMEDIA EN GRAFICA, WEB Y VIDEO DIGITAL</t>
-  </si>
-  <si>
     <t>DISEÑO DE JUEGOS DIGITALES</t>
   </si>
   <si>
@@ -4220,24 +3908,6 @@
     <t>INGENIERIA DE ALIMENTOS</t>
   </si>
   <si>
-    <t>INGENIERIA DE EJECUCION AGROPECUARIA</t>
-  </si>
-  <si>
-    <t>INGENIERIA DE EJECUCION EN ADMINISTRACION</t>
-  </si>
-  <si>
-    <t>INGENIERIA DE EJECUCION EN ADMINISTRACION DE NEGOCIOS</t>
-  </si>
-  <si>
-    <t>INGENIERIA DE EJECUCION EN ADMINISTRACION MENCION FINANZAS</t>
-  </si>
-  <si>
-    <t>INGENIERIA DE EJECUCION EN ADMINISTRACION MENCION MARKETING</t>
-  </si>
-  <si>
-    <t>INGENIERIA DE EJECUCION EN ADMINISTRACION MENCION RECURSOS HUMANOS</t>
-  </si>
-  <si>
     <t>INGENIERIA DE EJECUCION EN BIOPROCESOS</t>
   </si>
   <si>
@@ -4361,24 +4031,15 @@
     <t>INGENIERIA EN DISEÑO DE PRODUCTOS</t>
   </si>
   <si>
-    <t>INGENIERIA EN ENERGIA Y SUSTENTABILIDAD AMBIENTAL</t>
-  </si>
-  <si>
     <t>INGENIERIA EN ESTADISTICA</t>
   </si>
   <si>
-    <t>INGENIERIA EN EXPEDICIONES Y ECOTURISMO</t>
-  </si>
-  <si>
     <t>INGENIERIA EN FABRICACION Y DISEÑO INDUSTRIAL</t>
   </si>
   <si>
     <t>INGENIERIA EN GEOMENSURA</t>
   </si>
   <si>
-    <t>INGENIERIA EN GESTION DE NEGOCIOS INTERNACIONALES</t>
-  </si>
-  <si>
     <t>INGENIERIA EN GESTION TURISTICA</t>
   </si>
   <si>
@@ -4397,18 +4058,12 @@
     <t>INGENIERIA EN LOGISTICA Y TRANSPORTE</t>
   </si>
   <si>
-    <t>INGENIERIA EN MEDIO AMBIENTE Y RECURSOS NATURALES</t>
-  </si>
-  <si>
     <t>INGENIERIA EN METALURGIA</t>
   </si>
   <si>
     <t>INGENIERIA EN NEGOCIOS INTERNACIONALES</t>
   </si>
   <si>
-    <t>INGENIERIA EN PREVENCION DE RIESGO Y MEDIOAMBIENTE</t>
-  </si>
-  <si>
     <t>INGENIERIA EN PREVENCION DE RIESGOS</t>
   </si>
   <si>
@@ -4487,9 +4142,6 @@
     <t>INGENIERIA PLAN COMUN</t>
   </si>
   <si>
-    <t>INGENIERIA QUIMICA</t>
-  </si>
-  <si>
     <t>INGENIERIA QUIMICA AMBIENTAL</t>
   </si>
   <si>
@@ -4526,9 +4178,6 @@
     <t>LICENCIATURA EN BIOLOGIA</t>
   </si>
   <si>
-    <t>LICENCIATURA EN BIOLOGIA Y MEDIO AMBIENTE</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN CIENCIA DE LA COMPUTACION</t>
   </si>
   <si>
@@ -4562,9 +4211,6 @@
     <t>LICENCIATURA EN CIENCIAS RELIGIOSAS Y ESTUDIOS ECLESIASTICOS</t>
   </si>
   <si>
-    <t>LICENCIATURA EN CINE Y ARTES AUDIOVISUALES</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN DERECHO</t>
   </si>
   <si>
@@ -4667,12 +4313,6 @@
     <t>LICENCIATURA EN HISTORIA / LICENCIATURA EN HISTORIA MENCION EN GESTION Y ADMINISTRACION SOCIOCULTURAL</t>
   </si>
   <si>
-    <t>LICENCIATURA EN HISTORIA MENCION ESTUDIOS CULTURALES</t>
-  </si>
-  <si>
-    <t>LICENCIATURA EN HISTORIA MENCION TIEMPO PRESENTE</t>
-  </si>
-  <si>
     <t>LICENCIATURA EN IDIOMA INGLES Y TITULO PROFESIONAL DE TRADUCTOR INGLES-ESPAÑOL</t>
   </si>
   <si>
@@ -4775,36 +4415,9 @@
     <t>ODONTOLOGIA</t>
   </si>
   <si>
-    <t>PEDAGOGIA ARTES PLASTICAS MENCION PINTURA Y/O ESCULTURA Y/O GRABADO</t>
-  </si>
-  <si>
     <t>PEDAGOGIA BASICA</t>
   </si>
   <si>
-    <t>PEDAGOGIA DE EDUCACION BASICA EN MATEMATICA</t>
-  </si>
-  <si>
-    <t>PEDAGOGIA DE EDUCACION MEDIA EN HISTORIA Y CIENCIAS SOCIALES</t>
-  </si>
-  <si>
-    <t>PEDAGOGIA DE EDUCACION MEDIA EN HISTORIA Y GEOGRAFIA</t>
-  </si>
-  <si>
-    <t>PEDAGOGIA DE EDUCACION MEDIA EN INGLES</t>
-  </si>
-  <si>
-    <t>PEDAGOGIA DE EDUCACION MEDIA EN LENGUAJE Y COMUNICACION</t>
-  </si>
-  <si>
-    <t>PEDAGOGIA DE EDUCACION MEDIA EN LENGUAJE, COMUNICACION Y FILOSOFIA</t>
-  </si>
-  <si>
-    <t>PEDAGOGIA DE EDUCACION MEDIA EN MATEMATICA</t>
-  </si>
-  <si>
-    <t>PEDAGOGIA DE EDUCACION MEDIA EN MATEMATICA Y COMPUTACION</t>
-  </si>
-  <si>
     <t>PEDAGOGIA EDUCACION BASICA</t>
   </si>
   <si>
@@ -4868,9 +4481,6 @@
     <t>PEDAGOGIA EN COMUNICACION EN LENGUA INGLESA</t>
   </si>
   <si>
-    <t>PEDAGOGIA EN EDUCACION ARTISTICA</t>
-  </si>
-  <si>
     <t>PEDAGOGIA EN EDUCACION BASICA</t>
   </si>
   <si>
@@ -4913,9 +4523,6 @@
     <t>PEDAGOGIA EN EDUCACION DIFERENCIAL CON MENCION EN DISCAPACIDADES INTELECTUAL Y MULTIPLES</t>
   </si>
   <si>
-    <t>PEDAGOGIA EN EDUCACION DIFERENCIAL E INTEGRAL DE NECESIDADES EDUCATIVAS ESPECIALES</t>
-  </si>
-  <si>
     <t>PEDAGOGIA EN EDUCACION EN LENGUA CASTELLANA Y COMUNICACIONES</t>
   </si>
   <si>
@@ -5024,9 +4631,6 @@
     <t>PEDAGOGIA EN EDUCACION PARVULARIA Y BASICA PARA PRIMER CICLO</t>
   </si>
   <si>
-    <t>PEDAGOGIA EN EDUCACION TECNOLOGICA</t>
-  </si>
-  <si>
     <t>PEDAGOGIA EN ESPAÑOL</t>
   </si>
   <si>
@@ -5090,15 +4694,9 @@
     <t>PEDAGOGIA EN LENGUA CASTELLANA Y COMUNICACION</t>
   </si>
   <si>
-    <t>PEDAGOGIA EN LENGUA Y CULTURA INGLESA</t>
-  </si>
-  <si>
     <t>PEDAGOGIA EN LENGUAJE Y COMUNICACION</t>
   </si>
   <si>
-    <t>PEDAGOGIA EN LENGUAJE Y LITERATURA</t>
-  </si>
-  <si>
     <t>PEDAGOGIA EN MATEMATICA</t>
   </si>
   <si>
@@ -5114,18 +4712,12 @@
     <t>PEDAGOGIA EN MATEMATICA Y COMPUTACION / LICENCIATURA EN EDUCACION EN MATEMATICA Y COMPUTACION</t>
   </si>
   <si>
-    <t>PEDAGOGIA EN MATEMATICA Y ESTADISTICA</t>
-  </si>
-  <si>
     <t>PEDAGOGIA EN MATEMATICA Y FISICA</t>
   </si>
   <si>
     <t>PEDAGOGIA EN MATEMATICAS</t>
   </si>
   <si>
-    <t>PEDAGOGIA EN MATEMATICAS E INFORMATICA EDUCATIVA</t>
-  </si>
-  <si>
     <t>PEDAGOGIA EN MATEMATICAS Y EDUCACION TECNOLOGICA</t>
   </si>
   <si>
@@ -5186,9 +4778,6 @@
     <t>PLAN COMUN INGENIERIA CIVIL</t>
   </si>
   <si>
-    <t>PRODUCCION MUSICAL</t>
-  </si>
-  <si>
     <t>PROFESOR DE EDUCACION FISICA</t>
   </si>
   <si>
@@ -5207,9 +4796,6 @@
     <t>PUBLICIDAD</t>
   </si>
   <si>
-    <t>PUBLICISTA Y COMUNICADOR INTEGRAL</t>
-  </si>
-  <si>
     <t>QUIMICA</t>
   </si>
   <si>
@@ -5231,12 +4817,6 @@
     <t>QUIMICO LABORATORISTA</t>
   </si>
   <si>
-    <t>RELACIONES PUBLICAS</t>
-  </si>
-  <si>
-    <t>RELACIONES PUBLICAS Y PRODUCCION DE EVENTOS PROFESIONAL</t>
-  </si>
-  <si>
     <t>SOCIOLOGIA</t>
   </si>
   <si>
@@ -5361,9 +4941,6 @@
   </si>
   <si>
     <t>TECNOLOGIA MEDICA CON MENCION</t>
-  </si>
-  <si>
-    <t>TECNOLOGIA MEDICA CON MENCIONES</t>
   </si>
   <si>
     <t>TECNOLOGO EN ADMINISTRACION DE EMPRESAS</t>
@@ -5491,10 +5068,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>603</v>
+        <v>556</v>
       </c>
       <c r="C2" t="s">
-        <v>1204</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="3">
@@ -5502,10 +5079,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>604</v>
+        <v>557</v>
       </c>
       <c r="C3" t="s">
-        <v>1205</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5090,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>605</v>
+        <v>558</v>
       </c>
       <c r="C4" t="s">
-        <v>1206</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="5">
@@ -5524,10 +5101,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>606</v>
+        <v>559</v>
       </c>
       <c r="C5" t="s">
-        <v>1207</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="6">
@@ -5535,10 +5112,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>607</v>
+        <v>560</v>
       </c>
       <c r="C6" t="s">
-        <v>1208</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="7">
@@ -5546,10 +5123,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>608</v>
+        <v>561</v>
       </c>
       <c r="C7" t="s">
-        <v>1209</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="8">
@@ -5557,10 +5134,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>609</v>
+        <v>562</v>
       </c>
       <c r="C8" t="s">
-        <v>1210</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="9">
@@ -5568,10 +5145,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>610</v>
+        <v>563</v>
       </c>
       <c r="C9" t="s">
-        <v>1211</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="10">
@@ -5579,10 +5156,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>611</v>
+        <v>564</v>
       </c>
       <c r="C10" t="s">
-        <v>1212</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="11">
@@ -5590,10 +5167,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>612</v>
+        <v>565</v>
       </c>
       <c r="C11" t="s">
-        <v>1213</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="12">
@@ -5601,10 +5178,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>613</v>
+        <v>566</v>
       </c>
       <c r="C12" t="s">
-        <v>1214</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="13">
@@ -5612,10 +5189,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>614</v>
+        <v>567</v>
       </c>
       <c r="C13" t="s">
-        <v>1215</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="14">
@@ -5623,10 +5200,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>615</v>
+        <v>568</v>
       </c>
       <c r="C14" t="s">
-        <v>1216</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="15">
@@ -5634,10 +5211,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>616</v>
+        <v>569</v>
       </c>
       <c r="C15" t="s">
-        <v>1217</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="16">
@@ -5645,10 +5222,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>617</v>
+        <v>570</v>
       </c>
       <c r="C16" t="s">
-        <v>1218</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="17">
@@ -5656,10 +5233,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>618</v>
+        <v>571</v>
       </c>
       <c r="C17" t="s">
-        <v>1219</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="18">
@@ -5667,10 +5244,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>619</v>
+        <v>572</v>
       </c>
       <c r="C18" t="s">
-        <v>1220</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="19">
@@ -5678,10 +5255,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>620</v>
+        <v>573</v>
       </c>
       <c r="C19" t="s">
-        <v>1221</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="20">
@@ -5689,10 +5266,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>621</v>
+        <v>574</v>
       </c>
       <c r="C20" t="s">
-        <v>1222</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="21">
@@ -5700,10 +5277,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>622</v>
+        <v>575</v>
       </c>
       <c r="C21" t="s">
-        <v>1223</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="22">
@@ -5711,10 +5288,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>623</v>
+        <v>576</v>
       </c>
       <c r="C22" t="s">
-        <v>1224</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="23">
@@ -5722,10 +5299,10 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>624</v>
+        <v>577</v>
       </c>
       <c r="C23" t="s">
-        <v>1225</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="24">
@@ -5733,10 +5310,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>625</v>
+        <v>578</v>
       </c>
       <c r="C24" t="s">
-        <v>1226</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="25">
@@ -5744,10 +5321,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>626</v>
+        <v>579</v>
       </c>
       <c r="C25" t="s">
-        <v>1227</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="26">
@@ -5755,10 +5332,10 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>627</v>
+        <v>580</v>
       </c>
       <c r="C26" t="s">
-        <v>1228</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="27">
@@ -5766,10 +5343,10 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>628</v>
+        <v>581</v>
       </c>
       <c r="C27" t="s">
-        <v>1229</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="28">
@@ -5777,10 +5354,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>629</v>
+        <v>582</v>
       </c>
       <c r="C28" t="s">
-        <v>1230</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="29">
@@ -5788,10 +5365,10 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>630</v>
+        <v>583</v>
       </c>
       <c r="C29" t="s">
-        <v>1231</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="30">
@@ -5799,10 +5376,10 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>631</v>
+        <v>584</v>
       </c>
       <c r="C30" t="s">
-        <v>1232</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="31">
@@ -5810,10 +5387,10 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>632</v>
+        <v>585</v>
       </c>
       <c r="C31" t="s">
-        <v>1233</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="32">
@@ -5821,10 +5398,10 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>633</v>
+        <v>586</v>
       </c>
       <c r="C32" t="s">
-        <v>1234</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="33">
@@ -5832,10 +5409,10 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>634</v>
+        <v>587</v>
       </c>
       <c r="C33" t="s">
-        <v>1235</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="34">
@@ -5843,10 +5420,10 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>635</v>
+        <v>588</v>
       </c>
       <c r="C34" t="s">
-        <v>1236</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="35">
@@ -5854,10 +5431,10 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>636</v>
+        <v>589</v>
       </c>
       <c r="C35" t="s">
-        <v>1237</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="36">
@@ -5865,10 +5442,10 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>637</v>
+        <v>590</v>
       </c>
       <c r="C36" t="s">
-        <v>1238</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="37">
@@ -5876,10 +5453,10 @@
         <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>638</v>
+        <v>591</v>
       </c>
       <c r="C37" t="s">
-        <v>1239</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="38">
@@ -5887,10 +5464,10 @@
         <v>38</v>
       </c>
       <c r="B38" t="s">
-        <v>639</v>
+        <v>592</v>
       </c>
       <c r="C38" t="s">
-        <v>1240</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="39">
@@ -5898,10 +5475,10 @@
         <v>39</v>
       </c>
       <c r="B39" t="s">
-        <v>640</v>
+        <v>593</v>
       </c>
       <c r="C39" t="s">
-        <v>1241</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="40">
@@ -5909,10 +5486,10 @@
         <v>40</v>
       </c>
       <c r="B40" t="s">
-        <v>641</v>
+        <v>594</v>
       </c>
       <c r="C40" t="s">
-        <v>1242</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="41">
@@ -5920,10 +5497,10 @@
         <v>41</v>
       </c>
       <c r="B41" t="s">
-        <v>642</v>
+        <v>595</v>
       </c>
       <c r="C41" t="s">
-        <v>1243</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="42">
@@ -5931,10 +5508,10 @@
         <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>643</v>
+        <v>596</v>
       </c>
       <c r="C42" t="s">
-        <v>1244</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="43">
@@ -5942,10 +5519,10 @@
         <v>43</v>
       </c>
       <c r="B43" t="s">
-        <v>644</v>
+        <v>597</v>
       </c>
       <c r="C43" t="s">
-        <v>1245</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="44">
@@ -5953,10 +5530,10 @@
         <v>44</v>
       </c>
       <c r="B44" t="s">
-        <v>645</v>
+        <v>598</v>
       </c>
       <c r="C44" t="s">
-        <v>1246</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="45">
@@ -5964,10 +5541,10 @@
         <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>646</v>
+        <v>599</v>
       </c>
       <c r="C45" t="s">
-        <v>1247</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="46">
@@ -5975,10 +5552,10 @@
         <v>46</v>
       </c>
       <c r="B46" t="s">
-        <v>647</v>
+        <v>600</v>
       </c>
       <c r="C46" t="s">
-        <v>1248</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="47">
@@ -5986,10 +5563,10 @@
         <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>648</v>
+        <v>601</v>
       </c>
       <c r="C47" t="s">
-        <v>1249</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="48">
@@ -5997,10 +5574,10 @@
         <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>649</v>
+        <v>602</v>
       </c>
       <c r="C48" t="s">
-        <v>1250</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="49">
@@ -6008,10 +5585,10 @@
         <v>49</v>
       </c>
       <c r="B49" t="s">
-        <v>650</v>
+        <v>603</v>
       </c>
       <c r="C49" t="s">
-        <v>1251</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="50">
@@ -6019,10 +5596,10 @@
         <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>651</v>
+        <v>604</v>
       </c>
       <c r="C50" t="s">
-        <v>1252</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="51">
@@ -6030,10 +5607,10 @@
         <v>51</v>
       </c>
       <c r="B51" t="s">
-        <v>652</v>
+        <v>605</v>
       </c>
       <c r="C51" t="s">
-        <v>1253</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="52">
@@ -6041,10 +5618,10 @@
         <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>653</v>
+        <v>606</v>
       </c>
       <c r="C52" t="s">
-        <v>1254</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="53">
@@ -6052,10 +5629,10 @@
         <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>654</v>
+        <v>607</v>
       </c>
       <c r="C53" t="s">
-        <v>1255</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="54">
@@ -6063,10 +5640,10 @@
         <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>655</v>
+        <v>608</v>
       </c>
       <c r="C54" t="s">
-        <v>1256</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="55">
@@ -6074,10 +5651,10 @@
         <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="C55" t="s">
-        <v>1257</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="56">
@@ -6085,10 +5662,10 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="C56" t="s">
-        <v>1258</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="57">
@@ -6096,10 +5673,10 @@
         <v>57</v>
       </c>
       <c r="B57" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="C57" t="s">
-        <v>1259</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="58">
@@ -6107,10 +5684,10 @@
         <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="C58" t="s">
-        <v>1260</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="59">
@@ -6118,10 +5695,10 @@
         <v>59</v>
       </c>
       <c r="B59" t="s">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="C59" t="s">
-        <v>1261</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="60">
@@ -6129,10 +5706,10 @@
         <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>661</v>
+        <v>614</v>
       </c>
       <c r="C60" t="s">
-        <v>1262</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="61">
@@ -6140,10 +5717,10 @@
         <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>662</v>
+        <v>615</v>
       </c>
       <c r="C61" t="s">
-        <v>1263</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="62">
@@ -6151,10 +5728,10 @@
         <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>663</v>
+        <v>616</v>
       </c>
       <c r="C62" t="s">
-        <v>1264</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="63">
@@ -6162,10 +5739,10 @@
         <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>664</v>
+        <v>617</v>
       </c>
       <c r="C63" t="s">
-        <v>1265</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="64">
@@ -6173,10 +5750,10 @@
         <v>64</v>
       </c>
       <c r="B64" t="s">
-        <v>665</v>
+        <v>618</v>
       </c>
       <c r="C64" t="s">
-        <v>1266</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="65">
@@ -6184,10 +5761,10 @@
         <v>65</v>
       </c>
       <c r="B65" t="s">
-        <v>666</v>
+        <v>619</v>
       </c>
       <c r="C65" t="s">
-        <v>1267</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="66">
@@ -6195,10 +5772,10 @@
         <v>66</v>
       </c>
       <c r="B66" t="s">
-        <v>667</v>
+        <v>620</v>
       </c>
       <c r="C66" t="s">
-        <v>1268</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="67">
@@ -6206,10 +5783,10 @@
         <v>67</v>
       </c>
       <c r="B67" t="s">
-        <v>668</v>
+        <v>621</v>
       </c>
       <c r="C67" t="s">
-        <v>1269</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="68">
@@ -6217,10 +5794,10 @@
         <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
       <c r="C68" t="s">
-        <v>1270</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="69">
@@ -6228,10 +5805,10 @@
         <v>69</v>
       </c>
       <c r="B69" t="s">
-        <v>670</v>
+        <v>623</v>
       </c>
       <c r="C69" t="s">
-        <v>1271</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="70">
@@ -6239,10 +5816,10 @@
         <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>671</v>
+        <v>624</v>
       </c>
       <c r="C70" t="s">
-        <v>1272</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="71">
@@ -6250,10 +5827,10 @@
         <v>71</v>
       </c>
       <c r="B71" t="s">
-        <v>672</v>
+        <v>625</v>
       </c>
       <c r="C71" t="s">
-        <v>1273</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="72">
@@ -6261,10 +5838,10 @@
         <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>673</v>
+        <v>626</v>
       </c>
       <c r="C72" t="s">
-        <v>1274</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="73">
@@ -6272,10 +5849,10 @@
         <v>73</v>
       </c>
       <c r="B73" t="s">
-        <v>674</v>
+        <v>627</v>
       </c>
       <c r="C73" t="s">
-        <v>1275</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="74">
@@ -6283,10 +5860,10 @@
         <v>74</v>
       </c>
       <c r="B74" t="s">
-        <v>675</v>
+        <v>628</v>
       </c>
       <c r="C74" t="s">
-        <v>1276</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="75">
@@ -6294,10 +5871,10 @@
         <v>75</v>
       </c>
       <c r="B75" t="s">
-        <v>676</v>
+        <v>629</v>
       </c>
       <c r="C75" t="s">
-        <v>1277</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="76">
@@ -6305,10 +5882,10 @@
         <v>76</v>
       </c>
       <c r="B76" t="s">
-        <v>677</v>
+        <v>630</v>
       </c>
       <c r="C76" t="s">
-        <v>1278</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="77">
@@ -6316,10 +5893,10 @@
         <v>77</v>
       </c>
       <c r="B77" t="s">
-        <v>678</v>
+        <v>631</v>
       </c>
       <c r="C77" t="s">
-        <v>1279</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="78">
@@ -6327,10 +5904,10 @@
         <v>78</v>
       </c>
       <c r="B78" t="s">
-        <v>679</v>
+        <v>632</v>
       </c>
       <c r="C78" t="s">
-        <v>1280</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="79">
@@ -6338,10 +5915,10 @@
         <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>680</v>
+        <v>633</v>
       </c>
       <c r="C79" t="s">
-        <v>1281</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="80">
@@ -6349,10 +5926,10 @@
         <v>80</v>
       </c>
       <c r="B80" t="s">
-        <v>681</v>
+        <v>634</v>
       </c>
       <c r="C80" t="s">
-        <v>1282</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="81">
@@ -6360,10 +5937,10 @@
         <v>81</v>
       </c>
       <c r="B81" t="s">
-        <v>682</v>
+        <v>635</v>
       </c>
       <c r="C81" t="s">
-        <v>1283</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="82">
@@ -6371,10 +5948,10 @@
         <v>82</v>
       </c>
       <c r="B82" t="s">
-        <v>683</v>
+        <v>636</v>
       </c>
       <c r="C82" t="s">
-        <v>1284</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="83">
@@ -6382,10 +5959,10 @@
         <v>83</v>
       </c>
       <c r="B83" t="s">
-        <v>684</v>
+        <v>637</v>
       </c>
       <c r="C83" t="s">
-        <v>1285</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="84">
@@ -6393,10 +5970,10 @@
         <v>84</v>
       </c>
       <c r="B84" t="s">
-        <v>685</v>
+        <v>638</v>
       </c>
       <c r="C84" t="s">
-        <v>1286</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="85">
@@ -6404,10 +5981,10 @@
         <v>85</v>
       </c>
       <c r="B85" t="s">
-        <v>686</v>
+        <v>639</v>
       </c>
       <c r="C85" t="s">
-        <v>1287</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="86">
@@ -6415,10 +5992,10 @@
         <v>86</v>
       </c>
       <c r="B86" t="s">
-        <v>687</v>
+        <v>640</v>
       </c>
       <c r="C86" t="s">
-        <v>1288</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="87">
@@ -6426,10 +6003,10 @@
         <v>87</v>
       </c>
       <c r="B87" t="s">
-        <v>688</v>
+        <v>641</v>
       </c>
       <c r="C87" t="s">
-        <v>1289</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="88">
@@ -6437,10 +6014,10 @@
         <v>88</v>
       </c>
       <c r="B88" t="s">
-        <v>689</v>
+        <v>642</v>
       </c>
       <c r="C88" t="s">
-        <v>1290</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="89">
@@ -6448,10 +6025,10 @@
         <v>89</v>
       </c>
       <c r="B89" t="s">
-        <v>690</v>
+        <v>643</v>
       </c>
       <c r="C89" t="s">
-        <v>1291</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="90">
@@ -6459,10 +6036,10 @@
         <v>90</v>
       </c>
       <c r="B90" t="s">
-        <v>691</v>
+        <v>644</v>
       </c>
       <c r="C90" t="s">
-        <v>1292</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="91">
@@ -6470,10 +6047,10 @@
         <v>91</v>
       </c>
       <c r="B91" t="s">
-        <v>692</v>
+        <v>645</v>
       </c>
       <c r="C91" t="s">
-        <v>1293</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="92">
@@ -6481,10 +6058,10 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>693</v>
+        <v>646</v>
       </c>
       <c r="C92" t="s">
-        <v>1294</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="93">
@@ -6492,10 +6069,10 @@
         <v>93</v>
       </c>
       <c r="B93" t="s">
-        <v>694</v>
+        <v>647</v>
       </c>
       <c r="C93" t="s">
-        <v>1295</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="94">
@@ -6503,10 +6080,10 @@
         <v>94</v>
       </c>
       <c r="B94" t="s">
-        <v>695</v>
+        <v>648</v>
       </c>
       <c r="C94" t="s">
-        <v>1296</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="95">
@@ -6514,10 +6091,10 @@
         <v>95</v>
       </c>
       <c r="B95" t="s">
-        <v>696</v>
+        <v>649</v>
       </c>
       <c r="C95" t="s">
-        <v>1297</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="96">
@@ -6525,10 +6102,10 @@
         <v>96</v>
       </c>
       <c r="B96" t="s">
-        <v>697</v>
+        <v>650</v>
       </c>
       <c r="C96" t="s">
-        <v>1298</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="97">
@@ -6536,10 +6113,10 @@
         <v>97</v>
       </c>
       <c r="B97" t="s">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="C97" t="s">
-        <v>1299</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="98">
@@ -6547,10 +6124,10 @@
         <v>98</v>
       </c>
       <c r="B98" t="s">
-        <v>699</v>
+        <v>652</v>
       </c>
       <c r="C98" t="s">
-        <v>1300</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="99">
@@ -6558,10 +6135,10 @@
         <v>99</v>
       </c>
       <c r="B99" t="s">
-        <v>700</v>
+        <v>653</v>
       </c>
       <c r="C99" t="s">
-        <v>1301</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="100">
@@ -6569,10 +6146,10 @@
         <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>701</v>
+        <v>654</v>
       </c>
       <c r="C100" t="s">
-        <v>1302</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="101">
@@ -6580,10 +6157,10 @@
         <v>101</v>
       </c>
       <c r="B101" t="s">
-        <v>702</v>
+        <v>655</v>
       </c>
       <c r="C101" t="s">
-        <v>1303</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="102">
@@ -6591,10 +6168,10 @@
         <v>102</v>
       </c>
       <c r="B102" t="s">
-        <v>703</v>
+        <v>656</v>
       </c>
       <c r="C102" t="s">
-        <v>1304</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="103">
@@ -6602,10 +6179,10 @@
         <v>103</v>
       </c>
       <c r="B103" t="s">
-        <v>704</v>
+        <v>657</v>
       </c>
       <c r="C103" t="s">
-        <v>1305</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="104">
@@ -6613,10 +6190,10 @@
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>705</v>
+        <v>658</v>
       </c>
       <c r="C104" t="s">
-        <v>1306</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="105">
@@ -6624,10 +6201,10 @@
         <v>105</v>
       </c>
       <c r="B105" t="s">
-        <v>706</v>
+        <v>659</v>
       </c>
       <c r="C105" t="s">
-        <v>1307</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="106">
@@ -6635,10 +6212,10 @@
         <v>106</v>
       </c>
       <c r="B106" t="s">
-        <v>707</v>
+        <v>660</v>
       </c>
       <c r="C106" t="s">
-        <v>1308</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="107">
@@ -6646,10 +6223,10 @@
         <v>107</v>
       </c>
       <c r="B107" t="s">
-        <v>708</v>
+        <v>661</v>
       </c>
       <c r="C107" t="s">
-        <v>1309</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="108">
@@ -6657,10 +6234,10 @@
         <v>108</v>
       </c>
       <c r="B108" t="s">
-        <v>709</v>
+        <v>662</v>
       </c>
       <c r="C108" t="s">
-        <v>1310</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="109">
@@ -6668,10 +6245,10 @@
         <v>109</v>
       </c>
       <c r="B109" t="s">
-        <v>710</v>
+        <v>663</v>
       </c>
       <c r="C109" t="s">
-        <v>1311</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="110">
@@ -6679,10 +6256,10 @@
         <v>110</v>
       </c>
       <c r="B110" t="s">
-        <v>711</v>
+        <v>664</v>
       </c>
       <c r="C110" t="s">
-        <v>1312</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="111">
@@ -6690,10 +6267,10 @@
         <v>111</v>
       </c>
       <c r="B111" t="s">
-        <v>712</v>
+        <v>665</v>
       </c>
       <c r="C111" t="s">
-        <v>1313</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="112">
@@ -6701,10 +6278,10 @@
         <v>112</v>
       </c>
       <c r="B112" t="s">
-        <v>713</v>
+        <v>666</v>
       </c>
       <c r="C112" t="s">
-        <v>1314</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="113">
@@ -6712,10 +6289,10 @@
         <v>113</v>
       </c>
       <c r="B113" t="s">
-        <v>714</v>
+        <v>667</v>
       </c>
       <c r="C113" t="s">
-        <v>1315</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="114">
@@ -6723,10 +6300,10 @@
         <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>715</v>
+        <v>668</v>
       </c>
       <c r="C114" t="s">
-        <v>1316</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="115">
@@ -6734,10 +6311,10 @@
         <v>115</v>
       </c>
       <c r="B115" t="s">
-        <v>716</v>
+        <v>669</v>
       </c>
       <c r="C115" t="s">
-        <v>1317</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="116">
@@ -6745,10 +6322,10 @@
         <v>116</v>
       </c>
       <c r="B116" t="s">
-        <v>717</v>
+        <v>670</v>
       </c>
       <c r="C116" t="s">
-        <v>1318</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="117">
@@ -6756,10 +6333,10 @@
         <v>117</v>
       </c>
       <c r="B117" t="s">
-        <v>718</v>
+        <v>671</v>
       </c>
       <c r="C117" t="s">
-        <v>1319</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="118">
@@ -6767,10 +6344,10 @@
         <v>118</v>
       </c>
       <c r="B118" t="s">
-        <v>719</v>
+        <v>672</v>
       </c>
       <c r="C118" t="s">
-        <v>1320</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="119">
@@ -6778,10 +6355,10 @@
         <v>119</v>
       </c>
       <c r="B119" t="s">
-        <v>720</v>
+        <v>673</v>
       </c>
       <c r="C119" t="s">
-        <v>1321</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="120">
@@ -6789,10 +6366,10 @@
         <v>120</v>
       </c>
       <c r="B120" t="s">
-        <v>721</v>
+        <v>674</v>
       </c>
       <c r="C120" t="s">
-        <v>1322</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="121">
@@ -6800,10 +6377,10 @@
         <v>121</v>
       </c>
       <c r="B121" t="s">
-        <v>722</v>
+        <v>675</v>
       </c>
       <c r="C121" t="s">
-        <v>1323</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="122">
@@ -6811,10 +6388,10 @@
         <v>122</v>
       </c>
       <c r="B122" t="s">
-        <v>723</v>
+        <v>676</v>
       </c>
       <c r="C122" t="s">
-        <v>1324</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="123">
@@ -6822,10 +6399,10 @@
         <v>123</v>
       </c>
       <c r="B123" t="s">
-        <v>724</v>
+        <v>677</v>
       </c>
       <c r="C123" t="s">
-        <v>1325</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="124">
@@ -6833,10 +6410,10 @@
         <v>124</v>
       </c>
       <c r="B124" t="s">
-        <v>725</v>
+        <v>678</v>
       </c>
       <c r="C124" t="s">
-        <v>1326</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="125">
@@ -6844,10 +6421,10 @@
         <v>125</v>
       </c>
       <c r="B125" t="s">
-        <v>726</v>
+        <v>679</v>
       </c>
       <c r="C125" t="s">
-        <v>1327</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="126">
@@ -6855,10 +6432,10 @@
         <v>126</v>
       </c>
       <c r="B126" t="s">
-        <v>727</v>
+        <v>680</v>
       </c>
       <c r="C126" t="s">
-        <v>1328</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="127">
@@ -6866,10 +6443,10 @@
         <v>127</v>
       </c>
       <c r="B127" t="s">
-        <v>728</v>
+        <v>681</v>
       </c>
       <c r="C127" t="s">
-        <v>1329</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="128">
@@ -6877,10 +6454,10 @@
         <v>128</v>
       </c>
       <c r="B128" t="s">
-        <v>729</v>
+        <v>682</v>
       </c>
       <c r="C128" t="s">
-        <v>1330</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="129">
@@ -6888,10 +6465,10 @@
         <v>129</v>
       </c>
       <c r="B129" t="s">
-        <v>730</v>
+        <v>683</v>
       </c>
       <c r="C129" t="s">
-        <v>1331</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="130">
@@ -6899,10 +6476,10 @@
         <v>130</v>
       </c>
       <c r="B130" t="s">
-        <v>731</v>
+        <v>684</v>
       </c>
       <c r="C130" t="s">
-        <v>1332</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="131">
@@ -6910,10 +6487,10 @@
         <v>131</v>
       </c>
       <c r="B131" t="s">
-        <v>732</v>
+        <v>685</v>
       </c>
       <c r="C131" t="s">
-        <v>1333</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="132">
@@ -6921,10 +6498,10 @@
         <v>132</v>
       </c>
       <c r="B132" t="s">
-        <v>733</v>
+        <v>686</v>
       </c>
       <c r="C132" t="s">
-        <v>1334</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="133">
@@ -6932,10 +6509,10 @@
         <v>133</v>
       </c>
       <c r="B133" t="s">
-        <v>734</v>
+        <v>687</v>
       </c>
       <c r="C133" t="s">
-        <v>1335</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="134">
@@ -6943,10 +6520,10 @@
         <v>134</v>
       </c>
       <c r="B134" t="s">
-        <v>735</v>
+        <v>688</v>
       </c>
       <c r="C134" t="s">
-        <v>1336</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="135">
@@ -6954,10 +6531,10 @@
         <v>135</v>
       </c>
       <c r="B135" t="s">
-        <v>736</v>
+        <v>689</v>
       </c>
       <c r="C135" t="s">
-        <v>1337</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="136">
@@ -6965,10 +6542,10 @@
         <v>136</v>
       </c>
       <c r="B136" t="s">
-        <v>737</v>
+        <v>690</v>
       </c>
       <c r="C136" t="s">
-        <v>1338</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="137">
@@ -6976,10 +6553,10 @@
         <v>137</v>
       </c>
       <c r="B137" t="s">
-        <v>738</v>
+        <v>691</v>
       </c>
       <c r="C137" t="s">
-        <v>1339</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="138">
@@ -6987,10 +6564,10 @@
         <v>138</v>
       </c>
       <c r="B138" t="s">
-        <v>739</v>
+        <v>692</v>
       </c>
       <c r="C138" t="s">
-        <v>1340</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="139">
@@ -6998,10 +6575,10 @@
         <v>139</v>
       </c>
       <c r="B139" t="s">
-        <v>740</v>
+        <v>693</v>
       </c>
       <c r="C139" t="s">
-        <v>1341</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="140">
@@ -7009,10 +6586,10 @@
         <v>140</v>
       </c>
       <c r="B140" t="s">
-        <v>741</v>
+        <v>694</v>
       </c>
       <c r="C140" t="s">
-        <v>1342</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="141">
@@ -7020,10 +6597,10 @@
         <v>141</v>
       </c>
       <c r="B141" t="s">
-        <v>742</v>
+        <v>695</v>
       </c>
       <c r="C141" t="s">
-        <v>1343</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="142">
@@ -7031,10 +6608,10 @@
         <v>142</v>
       </c>
       <c r="B142" t="s">
-        <v>743</v>
+        <v>696</v>
       </c>
       <c r="C142" t="s">
-        <v>1344</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="143">
@@ -7042,10 +6619,10 @@
         <v>143</v>
       </c>
       <c r="B143" t="s">
-        <v>744</v>
+        <v>697</v>
       </c>
       <c r="C143" t="s">
-        <v>1345</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="144">
@@ -7053,10 +6630,10 @@
         <v>144</v>
       </c>
       <c r="B144" t="s">
-        <v>745</v>
+        <v>698</v>
       </c>
       <c r="C144" t="s">
-        <v>1346</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="145">
@@ -7064,10 +6641,10 @@
         <v>145</v>
       </c>
       <c r="B145" t="s">
-        <v>746</v>
+        <v>699</v>
       </c>
       <c r="C145" t="s">
-        <v>1347</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="146">
@@ -7075,10 +6652,10 @@
         <v>146</v>
       </c>
       <c r="B146" t="s">
-        <v>747</v>
+        <v>700</v>
       </c>
       <c r="C146" t="s">
-        <v>1348</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="147">
@@ -7086,10 +6663,10 @@
         <v>147</v>
       </c>
       <c r="B147" t="s">
-        <v>748</v>
+        <v>701</v>
       </c>
       <c r="C147" t="s">
-        <v>1349</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="148">
@@ -7097,10 +6674,10 @@
         <v>148</v>
       </c>
       <c r="B148" t="s">
-        <v>749</v>
+        <v>702</v>
       </c>
       <c r="C148" t="s">
-        <v>1350</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="149">
@@ -7108,10 +6685,10 @@
         <v>149</v>
       </c>
       <c r="B149" t="s">
-        <v>750</v>
+        <v>703</v>
       </c>
       <c r="C149" t="s">
-        <v>1351</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="150">
@@ -7119,10 +6696,10 @@
         <v>150</v>
       </c>
       <c r="B150" t="s">
-        <v>751</v>
+        <v>704</v>
       </c>
       <c r="C150" t="s">
-        <v>1352</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="151">
@@ -7130,10 +6707,10 @@
         <v>151</v>
       </c>
       <c r="B151" t="s">
-        <v>752</v>
+        <v>705</v>
       </c>
       <c r="C151" t="s">
-        <v>1353</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="152">
@@ -7141,10 +6718,10 @@
         <v>152</v>
       </c>
       <c r="B152" t="s">
-        <v>753</v>
+        <v>706</v>
       </c>
       <c r="C152" t="s">
-        <v>1354</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="153">
@@ -7152,10 +6729,10 @@
         <v>153</v>
       </c>
       <c r="B153" t="s">
-        <v>754</v>
+        <v>707</v>
       </c>
       <c r="C153" t="s">
-        <v>1355</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="154">
@@ -7163,10 +6740,10 @@
         <v>154</v>
       </c>
       <c r="B154" t="s">
-        <v>755</v>
+        <v>708</v>
       </c>
       <c r="C154" t="s">
-        <v>1356</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="155">
@@ -7174,10 +6751,10 @@
         <v>155</v>
       </c>
       <c r="B155" t="s">
-        <v>756</v>
+        <v>709</v>
       </c>
       <c r="C155" t="s">
-        <v>1357</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="156">
@@ -7185,10 +6762,10 @@
         <v>156</v>
       </c>
       <c r="B156" t="s">
-        <v>757</v>
+        <v>710</v>
       </c>
       <c r="C156" t="s">
-        <v>1358</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="157">
@@ -7196,10 +6773,10 @@
         <v>157</v>
       </c>
       <c r="B157" t="s">
-        <v>758</v>
+        <v>711</v>
       </c>
       <c r="C157" t="s">
-        <v>1359</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="158">
@@ -7207,10 +6784,10 @@
         <v>158</v>
       </c>
       <c r="B158" t="s">
-        <v>759</v>
+        <v>712</v>
       </c>
       <c r="C158" t="s">
-        <v>1360</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="159">
@@ -7218,10 +6795,10 @@
         <v>159</v>
       </c>
       <c r="B159" t="s">
-        <v>760</v>
+        <v>713</v>
       </c>
       <c r="C159" t="s">
-        <v>1361</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="160">
@@ -7229,10 +6806,10 @@
         <v>160</v>
       </c>
       <c r="B160" t="s">
-        <v>761</v>
+        <v>714</v>
       </c>
       <c r="C160" t="s">
-        <v>1362</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="161">
@@ -7240,10 +6817,10 @@
         <v>161</v>
       </c>
       <c r="B161" t="s">
-        <v>762</v>
+        <v>715</v>
       </c>
       <c r="C161" t="s">
-        <v>1363</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="162">
@@ -7251,10 +6828,10 @@
         <v>162</v>
       </c>
       <c r="B162" t="s">
-        <v>763</v>
+        <v>716</v>
       </c>
       <c r="C162" t="s">
-        <v>1364</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="163">
@@ -7262,10 +6839,10 @@
         <v>163</v>
       </c>
       <c r="B163" t="s">
-        <v>764</v>
+        <v>717</v>
       </c>
       <c r="C163" t="s">
-        <v>1365</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="164">
@@ -7273,10 +6850,10 @@
         <v>164</v>
       </c>
       <c r="B164" t="s">
-        <v>765</v>
+        <v>718</v>
       </c>
       <c r="C164" t="s">
-        <v>1366</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="165">
@@ -7284,10 +6861,10 @@
         <v>165</v>
       </c>
       <c r="B165" t="s">
-        <v>766</v>
+        <v>719</v>
       </c>
       <c r="C165" t="s">
-        <v>1367</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="166">
@@ -7295,10 +6872,10 @@
         <v>166</v>
       </c>
       <c r="B166" t="s">
-        <v>767</v>
+        <v>720</v>
       </c>
       <c r="C166" t="s">
-        <v>1368</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="167">
@@ -7306,10 +6883,10 @@
         <v>167</v>
       </c>
       <c r="B167" t="s">
-        <v>768</v>
+        <v>721</v>
       </c>
       <c r="C167" t="s">
-        <v>1369</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="168">
@@ -7317,10 +6894,10 @@
         <v>168</v>
       </c>
       <c r="B168" t="s">
-        <v>769</v>
+        <v>722</v>
       </c>
       <c r="C168" t="s">
-        <v>1370</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="169">
@@ -7328,10 +6905,10 @@
         <v>169</v>
       </c>
       <c r="B169" t="s">
-        <v>770</v>
+        <v>723</v>
       </c>
       <c r="C169" t="s">
-        <v>1371</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="170">
@@ -7339,10 +6916,10 @@
         <v>170</v>
       </c>
       <c r="B170" t="s">
-        <v>771</v>
+        <v>724</v>
       </c>
       <c r="C170" t="s">
-        <v>1372</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="171">
@@ -7350,10 +6927,10 @@
         <v>171</v>
       </c>
       <c r="B171" t="s">
-        <v>772</v>
+        <v>725</v>
       </c>
       <c r="C171" t="s">
-        <v>1373</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="172">
@@ -7361,10 +6938,10 @@
         <v>172</v>
       </c>
       <c r="B172" t="s">
-        <v>773</v>
+        <v>726</v>
       </c>
       <c r="C172" t="s">
-        <v>1374</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="173">
@@ -7372,10 +6949,10 @@
         <v>173</v>
       </c>
       <c r="B173" t="s">
-        <v>774</v>
+        <v>727</v>
       </c>
       <c r="C173" t="s">
-        <v>1375</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="174">
@@ -7383,10 +6960,10 @@
         <v>174</v>
       </c>
       <c r="B174" t="s">
-        <v>775</v>
+        <v>728</v>
       </c>
       <c r="C174" t="s">
-        <v>1376</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="175">
@@ -7394,10 +6971,10 @@
         <v>175</v>
       </c>
       <c r="B175" t="s">
-        <v>776</v>
+        <v>729</v>
       </c>
       <c r="C175" t="s">
-        <v>1377</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="176">
@@ -7405,10 +6982,10 @@
         <v>176</v>
       </c>
       <c r="B176" t="s">
-        <v>777</v>
+        <v>730</v>
       </c>
       <c r="C176" t="s">
-        <v>1378</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="177">
@@ -7416,10 +6993,10 @@
         <v>177</v>
       </c>
       <c r="B177" t="s">
-        <v>778</v>
+        <v>731</v>
       </c>
       <c r="C177" t="s">
-        <v>1379</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="178">
@@ -7427,10 +7004,10 @@
         <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>779</v>
+        <v>732</v>
       </c>
       <c r="C178" t="s">
-        <v>1380</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="179">
@@ -7438,10 +7015,10 @@
         <v>179</v>
       </c>
       <c r="B179" t="s">
-        <v>780</v>
+        <v>733</v>
       </c>
       <c r="C179" t="s">
-        <v>1381</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="180">
@@ -7449,10 +7026,10 @@
         <v>180</v>
       </c>
       <c r="B180" t="s">
-        <v>781</v>
+        <v>734</v>
       </c>
       <c r="C180" t="s">
-        <v>1382</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="181">
@@ -7460,10 +7037,10 @@
         <v>181</v>
       </c>
       <c r="B181" t="s">
-        <v>782</v>
+        <v>735</v>
       </c>
       <c r="C181" t="s">
-        <v>1383</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="182">
@@ -7471,10 +7048,10 @@
         <v>182</v>
       </c>
       <c r="B182" t="s">
-        <v>783</v>
+        <v>736</v>
       </c>
       <c r="C182" t="s">
-        <v>1384</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="183">
@@ -7482,10 +7059,10 @@
         <v>183</v>
       </c>
       <c r="B183" t="s">
-        <v>784</v>
+        <v>737</v>
       </c>
       <c r="C183" t="s">
-        <v>1385</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="184">
@@ -7493,10 +7070,10 @@
         <v>184</v>
       </c>
       <c r="B184" t="s">
-        <v>785</v>
+        <v>738</v>
       </c>
       <c r="C184" t="s">
-        <v>1386</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="185">
@@ -7504,10 +7081,10 @@
         <v>185</v>
       </c>
       <c r="B185" t="s">
-        <v>786</v>
+        <v>739</v>
       </c>
       <c r="C185" t="s">
-        <v>1387</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="186">
@@ -7515,10 +7092,10 @@
         <v>186</v>
       </c>
       <c r="B186" t="s">
-        <v>787</v>
+        <v>740</v>
       </c>
       <c r="C186" t="s">
-        <v>1388</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="187">
@@ -7526,10 +7103,10 @@
         <v>187</v>
       </c>
       <c r="B187" t="s">
-        <v>788</v>
+        <v>741</v>
       </c>
       <c r="C187" t="s">
-        <v>1389</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="188">
@@ -7537,10 +7114,10 @@
         <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>789</v>
+        <v>742</v>
       </c>
       <c r="C188" t="s">
-        <v>1390</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="189">
@@ -7548,10 +7125,10 @@
         <v>189</v>
       </c>
       <c r="B189" t="s">
-        <v>790</v>
+        <v>743</v>
       </c>
       <c r="C189" t="s">
-        <v>1391</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="190">
@@ -7559,10 +7136,10 @@
         <v>190</v>
       </c>
       <c r="B190" t="s">
-        <v>791</v>
+        <v>744</v>
       </c>
       <c r="C190" t="s">
-        <v>1392</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="191">
@@ -7570,10 +7147,10 @@
         <v>191</v>
       </c>
       <c r="B191" t="s">
-        <v>792</v>
+        <v>745</v>
       </c>
       <c r="C191" t="s">
-        <v>1393</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="192">
@@ -7581,10 +7158,10 @@
         <v>192</v>
       </c>
       <c r="B192" t="s">
-        <v>793</v>
+        <v>746</v>
       </c>
       <c r="C192" t="s">
-        <v>1394</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="193">
@@ -7592,10 +7169,10 @@
         <v>193</v>
       </c>
       <c r="B193" t="s">
-        <v>794</v>
+        <v>747</v>
       </c>
       <c r="C193" t="s">
-        <v>1395</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="194">
@@ -7603,10 +7180,10 @@
         <v>194</v>
       </c>
       <c r="B194" t="s">
-        <v>795</v>
+        <v>748</v>
       </c>
       <c r="C194" t="s">
-        <v>1396</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="195">
@@ -7614,10 +7191,10 @@
         <v>195</v>
       </c>
       <c r="B195" t="s">
-        <v>796</v>
+        <v>749</v>
       </c>
       <c r="C195" t="s">
-        <v>1397</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="196">
@@ -7625,10 +7202,10 @@
         <v>196</v>
       </c>
       <c r="B196" t="s">
-        <v>797</v>
+        <v>750</v>
       </c>
       <c r="C196" t="s">
-        <v>1398</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="197">
@@ -7636,10 +7213,10 @@
         <v>197</v>
       </c>
       <c r="B197" t="s">
-        <v>798</v>
+        <v>751</v>
       </c>
       <c r="C197" t="s">
-        <v>1399</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="198">
@@ -7647,10 +7224,10 @@
         <v>198</v>
       </c>
       <c r="B198" t="s">
-        <v>799</v>
+        <v>752</v>
       </c>
       <c r="C198" t="s">
-        <v>1400</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="199">
@@ -7658,10 +7235,10 @@
         <v>199</v>
       </c>
       <c r="B199" t="s">
-        <v>800</v>
+        <v>753</v>
       </c>
       <c r="C199" t="s">
-        <v>1401</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="200">
@@ -7669,10 +7246,10 @@
         <v>200</v>
       </c>
       <c r="B200" t="s">
-        <v>801</v>
+        <v>754</v>
       </c>
       <c r="C200" t="s">
-        <v>1402</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="201">
@@ -7680,10 +7257,10 @@
         <v>201</v>
       </c>
       <c r="B201" t="s">
-        <v>802</v>
+        <v>755</v>
       </c>
       <c r="C201" t="s">
-        <v>1403</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="202">
@@ -7691,10 +7268,10 @@
         <v>202</v>
       </c>
       <c r="B202" t="s">
-        <v>803</v>
+        <v>756</v>
       </c>
       <c r="C202" t="s">
-        <v>1404</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="203">
@@ -7702,10 +7279,10 @@
         <v>203</v>
       </c>
       <c r="B203" t="s">
-        <v>804</v>
+        <v>757</v>
       </c>
       <c r="C203" t="s">
-        <v>1405</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="204">
@@ -7713,10 +7290,10 @@
         <v>204</v>
       </c>
       <c r="B204" t="s">
-        <v>805</v>
+        <v>758</v>
       </c>
       <c r="C204" t="s">
-        <v>1406</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="205">
@@ -7724,10 +7301,10 @@
         <v>205</v>
       </c>
       <c r="B205" t="s">
-        <v>806</v>
+        <v>759</v>
       </c>
       <c r="C205" t="s">
-        <v>1407</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="206">
@@ -7735,10 +7312,10 @@
         <v>206</v>
       </c>
       <c r="B206" t="s">
-        <v>807</v>
+        <v>760</v>
       </c>
       <c r="C206" t="s">
-        <v>1408</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="207">
@@ -7746,10 +7323,10 @@
         <v>207</v>
       </c>
       <c r="B207" t="s">
-        <v>808</v>
+        <v>761</v>
       </c>
       <c r="C207" t="s">
-        <v>1409</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="208">
@@ -7757,10 +7334,10 @@
         <v>208</v>
       </c>
       <c r="B208" t="s">
-        <v>809</v>
+        <v>762</v>
       </c>
       <c r="C208" t="s">
-        <v>1410</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="209">
@@ -7768,10 +7345,10 @@
         <v>209</v>
       </c>
       <c r="B209" t="s">
-        <v>810</v>
+        <v>763</v>
       </c>
       <c r="C209" t="s">
-        <v>1411</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="210">
@@ -7779,10 +7356,10 @@
         <v>210</v>
       </c>
       <c r="B210" t="s">
-        <v>811</v>
+        <v>764</v>
       </c>
       <c r="C210" t="s">
-        <v>1412</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="211">
@@ -7790,10 +7367,10 @@
         <v>211</v>
       </c>
       <c r="B211" t="s">
-        <v>812</v>
+        <v>765</v>
       </c>
       <c r="C211" t="s">
-        <v>1413</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="212">
@@ -7801,10 +7378,10 @@
         <v>212</v>
       </c>
       <c r="B212" t="s">
-        <v>813</v>
+        <v>766</v>
       </c>
       <c r="C212" t="s">
-        <v>1414</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="213">
@@ -7812,10 +7389,10 @@
         <v>213</v>
       </c>
       <c r="B213" t="s">
-        <v>814</v>
+        <v>767</v>
       </c>
       <c r="C213" t="s">
-        <v>1415</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="214">
@@ -7823,10 +7400,10 @@
         <v>214</v>
       </c>
       <c r="B214" t="s">
-        <v>815</v>
+        <v>768</v>
       </c>
       <c r="C214" t="s">
-        <v>1416</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="215">
@@ -7834,10 +7411,10 @@
         <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>816</v>
+        <v>769</v>
       </c>
       <c r="C215" t="s">
-        <v>1417</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="216">
@@ -7845,10 +7422,10 @@
         <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>817</v>
+        <v>770</v>
       </c>
       <c r="C216" t="s">
-        <v>1418</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="217">
@@ -7856,10 +7433,10 @@
         <v>217</v>
       </c>
       <c r="B217" t="s">
-        <v>818</v>
+        <v>771</v>
       </c>
       <c r="C217" t="s">
-        <v>1419</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="218">
@@ -7867,10 +7444,10 @@
         <v>218</v>
       </c>
       <c r="B218" t="s">
-        <v>819</v>
+        <v>772</v>
       </c>
       <c r="C218" t="s">
-        <v>1420</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="219">
@@ -7878,10 +7455,10 @@
         <v>219</v>
       </c>
       <c r="B219" t="s">
-        <v>820</v>
+        <v>773</v>
       </c>
       <c r="C219" t="s">
-        <v>1421</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="220">
@@ -7889,10 +7466,10 @@
         <v>220</v>
       </c>
       <c r="B220" t="s">
-        <v>821</v>
+        <v>774</v>
       </c>
       <c r="C220" t="s">
-        <v>1422</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="221">
@@ -7900,10 +7477,10 @@
         <v>221</v>
       </c>
       <c r="B221" t="s">
-        <v>822</v>
+        <v>775</v>
       </c>
       <c r="C221" t="s">
-        <v>1423</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="222">
@@ -7911,10 +7488,10 @@
         <v>222</v>
       </c>
       <c r="B222" t="s">
-        <v>823</v>
+        <v>776</v>
       </c>
       <c r="C222" t="s">
-        <v>1424</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="223">
@@ -7922,10 +7499,10 @@
         <v>223</v>
       </c>
       <c r="B223" t="s">
-        <v>824</v>
+        <v>777</v>
       </c>
       <c r="C223" t="s">
-        <v>1425</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="224">
@@ -7933,10 +7510,10 @@
         <v>224</v>
       </c>
       <c r="B224" t="s">
-        <v>825</v>
+        <v>778</v>
       </c>
       <c r="C224" t="s">
-        <v>1426</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="225">
@@ -7944,10 +7521,10 @@
         <v>225</v>
       </c>
       <c r="B225" t="s">
-        <v>826</v>
+        <v>779</v>
       </c>
       <c r="C225" t="s">
-        <v>1427</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="226">
@@ -7955,10 +7532,10 @@
         <v>226</v>
       </c>
       <c r="B226" t="s">
-        <v>827</v>
+        <v>780</v>
       </c>
       <c r="C226" t="s">
-        <v>1428</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="227">
@@ -7966,10 +7543,10 @@
         <v>227</v>
       </c>
       <c r="B227" t="s">
-        <v>828</v>
+        <v>781</v>
       </c>
       <c r="C227" t="s">
-        <v>1429</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="228">
@@ -7977,10 +7554,10 @@
         <v>228</v>
       </c>
       <c r="B228" t="s">
-        <v>829</v>
+        <v>782</v>
       </c>
       <c r="C228" t="s">
-        <v>1430</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="229">
@@ -7988,10 +7565,10 @@
         <v>229</v>
       </c>
       <c r="B229" t="s">
-        <v>830</v>
+        <v>783</v>
       </c>
       <c r="C229" t="s">
-        <v>1431</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="230">
@@ -7999,10 +7576,10 @@
         <v>230</v>
       </c>
       <c r="B230" t="s">
-        <v>831</v>
+        <v>784</v>
       </c>
       <c r="C230" t="s">
-        <v>1432</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="231">
@@ -8010,10 +7587,10 @@
         <v>231</v>
       </c>
       <c r="B231" t="s">
-        <v>832</v>
+        <v>785</v>
       </c>
       <c r="C231" t="s">
-        <v>1433</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="232">
@@ -8021,10 +7598,10 @@
         <v>232</v>
       </c>
       <c r="B232" t="s">
-        <v>833</v>
+        <v>786</v>
       </c>
       <c r="C232" t="s">
-        <v>1434</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="233">
@@ -8032,10 +7609,10 @@
         <v>233</v>
       </c>
       <c r="B233" t="s">
-        <v>834</v>
+        <v>787</v>
       </c>
       <c r="C233" t="s">
-        <v>1435</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="234">
@@ -8043,10 +7620,10 @@
         <v>234</v>
       </c>
       <c r="B234" t="s">
-        <v>835</v>
+        <v>788</v>
       </c>
       <c r="C234" t="s">
-        <v>1436</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="235">
@@ -8054,10 +7631,10 @@
         <v>235</v>
       </c>
       <c r="B235" t="s">
-        <v>836</v>
+        <v>789</v>
       </c>
       <c r="C235" t="s">
-        <v>1437</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="236">
@@ -8065,10 +7642,10 @@
         <v>236</v>
       </c>
       <c r="B236" t="s">
-        <v>837</v>
+        <v>790</v>
       </c>
       <c r="C236" t="s">
-        <v>1438</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="237">
@@ -8076,10 +7653,10 @@
         <v>237</v>
       </c>
       <c r="B237" t="s">
-        <v>838</v>
+        <v>791</v>
       </c>
       <c r="C237" t="s">
-        <v>1439</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="238">
@@ -8087,10 +7664,10 @@
         <v>238</v>
       </c>
       <c r="B238" t="s">
-        <v>839</v>
+        <v>792</v>
       </c>
       <c r="C238" t="s">
-        <v>1440</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="239">
@@ -8098,10 +7675,10 @@
         <v>239</v>
       </c>
       <c r="B239" t="s">
-        <v>840</v>
+        <v>793</v>
       </c>
       <c r="C239" t="s">
-        <v>1441</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="240">
@@ -8109,10 +7686,10 @@
         <v>240</v>
       </c>
       <c r="B240" t="s">
-        <v>841</v>
+        <v>794</v>
       </c>
       <c r="C240" t="s">
-        <v>1442</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="241">
@@ -8120,10 +7697,10 @@
         <v>241</v>
       </c>
       <c r="B241" t="s">
-        <v>842</v>
+        <v>795</v>
       </c>
       <c r="C241" t="s">
-        <v>1443</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="242">
@@ -8131,10 +7708,10 @@
         <v>242</v>
       </c>
       <c r="B242" t="s">
-        <v>843</v>
+        <v>796</v>
       </c>
       <c r="C242" t="s">
-        <v>1444</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="243">
@@ -8142,10 +7719,10 @@
         <v>243</v>
       </c>
       <c r="B243" t="s">
-        <v>844</v>
+        <v>797</v>
       </c>
       <c r="C243" t="s">
-        <v>1445</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="244">
@@ -8153,10 +7730,10 @@
         <v>244</v>
       </c>
       <c r="B244" t="s">
-        <v>845</v>
+        <v>798</v>
       </c>
       <c r="C244" t="s">
-        <v>1446</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="245">
@@ -8164,10 +7741,10 @@
         <v>245</v>
       </c>
       <c r="B245" t="s">
-        <v>846</v>
+        <v>799</v>
       </c>
       <c r="C245" t="s">
-        <v>1447</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="246">
@@ -8175,10 +7752,10 @@
         <v>246</v>
       </c>
       <c r="B246" t="s">
-        <v>847</v>
+        <v>800</v>
       </c>
       <c r="C246" t="s">
-        <v>1448</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="247">
@@ -8186,10 +7763,10 @@
         <v>247</v>
       </c>
       <c r="B247" t="s">
-        <v>848</v>
+        <v>801</v>
       </c>
       <c r="C247" t="s">
-        <v>1449</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="248">
@@ -8197,10 +7774,10 @@
         <v>248</v>
       </c>
       <c r="B248" t="s">
-        <v>849</v>
+        <v>802</v>
       </c>
       <c r="C248" t="s">
-        <v>1450</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="249">
@@ -8208,10 +7785,10 @@
         <v>249</v>
       </c>
       <c r="B249" t="s">
-        <v>850</v>
+        <v>803</v>
       </c>
       <c r="C249" t="s">
-        <v>1451</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="250">
@@ -8219,10 +7796,10 @@
         <v>250</v>
       </c>
       <c r="B250" t="s">
-        <v>851</v>
+        <v>804</v>
       </c>
       <c r="C250" t="s">
-        <v>1452</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="251">
@@ -8230,10 +7807,10 @@
         <v>251</v>
       </c>
       <c r="B251" t="s">
-        <v>852</v>
+        <v>805</v>
       </c>
       <c r="C251" t="s">
-        <v>1453</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="252">
@@ -8241,10 +7818,10 @@
         <v>252</v>
       </c>
       <c r="B252" t="s">
-        <v>853</v>
+        <v>806</v>
       </c>
       <c r="C252" t="s">
-        <v>1454</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="253">
@@ -8252,10 +7829,10 @@
         <v>253</v>
       </c>
       <c r="B253" t="s">
-        <v>854</v>
+        <v>807</v>
       </c>
       <c r="C253" t="s">
-        <v>1455</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="254">
@@ -8263,10 +7840,10 @@
         <v>254</v>
       </c>
       <c r="B254" t="s">
-        <v>855</v>
+        <v>808</v>
       </c>
       <c r="C254" t="s">
-        <v>1456</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="255">
@@ -8274,10 +7851,10 @@
         <v>255</v>
       </c>
       <c r="B255" t="s">
-        <v>856</v>
+        <v>809</v>
       </c>
       <c r="C255" t="s">
-        <v>1457</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="256">
@@ -8285,10 +7862,10 @@
         <v>256</v>
       </c>
       <c r="B256" t="s">
-        <v>857</v>
+        <v>810</v>
       </c>
       <c r="C256" t="s">
-        <v>1458</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="257">
@@ -8296,10 +7873,10 @@
         <v>257</v>
       </c>
       <c r="B257" t="s">
-        <v>858</v>
+        <v>811</v>
       </c>
       <c r="C257" t="s">
-        <v>1459</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="258">
@@ -8307,10 +7884,10 @@
         <v>258</v>
       </c>
       <c r="B258" t="s">
-        <v>859</v>
+        <v>812</v>
       </c>
       <c r="C258" t="s">
-        <v>1460</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="259">
@@ -8318,10 +7895,10 @@
         <v>259</v>
       </c>
       <c r="B259" t="s">
-        <v>860</v>
+        <v>813</v>
       </c>
       <c r="C259" t="s">
-        <v>1461</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="260">
@@ -8329,10 +7906,10 @@
         <v>260</v>
       </c>
       <c r="B260" t="s">
-        <v>861</v>
+        <v>814</v>
       </c>
       <c r="C260" t="s">
-        <v>1462</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="261">
@@ -8340,10 +7917,10 @@
         <v>261</v>
       </c>
       <c r="B261" t="s">
-        <v>862</v>
+        <v>815</v>
       </c>
       <c r="C261" t="s">
-        <v>1463</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="262">
@@ -8351,10 +7928,10 @@
         <v>262</v>
       </c>
       <c r="B262" t="s">
-        <v>863</v>
+        <v>816</v>
       </c>
       <c r="C262" t="s">
-        <v>1464</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="263">
@@ -8362,10 +7939,10 @@
         <v>263</v>
       </c>
       <c r="B263" t="s">
-        <v>864</v>
+        <v>817</v>
       </c>
       <c r="C263" t="s">
-        <v>1465</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="264">
@@ -8373,10 +7950,10 @@
         <v>264</v>
       </c>
       <c r="B264" t="s">
-        <v>865</v>
+        <v>818</v>
       </c>
       <c r="C264" t="s">
-        <v>1466</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="265">
@@ -8384,10 +7961,10 @@
         <v>265</v>
       </c>
       <c r="B265" t="s">
-        <v>866</v>
+        <v>819</v>
       </c>
       <c r="C265" t="s">
-        <v>1467</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="266">
@@ -8395,10 +7972,10 @@
         <v>266</v>
       </c>
       <c r="B266" t="s">
-        <v>867</v>
+        <v>820</v>
       </c>
       <c r="C266" t="s">
-        <v>1468</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="267">
@@ -8406,10 +7983,10 @@
         <v>267</v>
       </c>
       <c r="B267" t="s">
-        <v>868</v>
+        <v>821</v>
       </c>
       <c r="C267" t="s">
-        <v>1469</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="268">
@@ -8417,10 +7994,10 @@
         <v>268</v>
       </c>
       <c r="B268" t="s">
-        <v>869</v>
+        <v>822</v>
       </c>
       <c r="C268" t="s">
-        <v>1470</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="269">
@@ -8428,10 +8005,10 @@
         <v>269</v>
       </c>
       <c r="B269" t="s">
-        <v>870</v>
+        <v>823</v>
       </c>
       <c r="C269" t="s">
-        <v>1471</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="270">
@@ -8439,10 +8016,10 @@
         <v>270</v>
       </c>
       <c r="B270" t="s">
-        <v>871</v>
+        <v>824</v>
       </c>
       <c r="C270" t="s">
-        <v>1472</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="271">
@@ -8450,10 +8027,10 @@
         <v>271</v>
       </c>
       <c r="B271" t="s">
-        <v>872</v>
+        <v>825</v>
       </c>
       <c r="C271" t="s">
-        <v>1473</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="272">
@@ -8461,10 +8038,10 @@
         <v>272</v>
       </c>
       <c r="B272" t="s">
-        <v>873</v>
+        <v>826</v>
       </c>
       <c r="C272" t="s">
-        <v>1474</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="273">
@@ -8472,10 +8049,10 @@
         <v>273</v>
       </c>
       <c r="B273" t="s">
-        <v>874</v>
+        <v>827</v>
       </c>
       <c r="C273" t="s">
-        <v>1475</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="274">
@@ -8483,10 +8060,10 @@
         <v>274</v>
       </c>
       <c r="B274" t="s">
-        <v>875</v>
+        <v>828</v>
       </c>
       <c r="C274" t="s">
-        <v>1476</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="275">
@@ -8494,10 +8071,10 @@
         <v>275</v>
       </c>
       <c r="B275" t="s">
-        <v>876</v>
+        <v>829</v>
       </c>
       <c r="C275" t="s">
-        <v>1477</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="276">
@@ -8505,10 +8082,10 @@
         <v>276</v>
       </c>
       <c r="B276" t="s">
-        <v>877</v>
+        <v>830</v>
       </c>
       <c r="C276" t="s">
-        <v>1478</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="277">
@@ -8516,10 +8093,10 @@
         <v>277</v>
       </c>
       <c r="B277" t="s">
-        <v>878</v>
+        <v>831</v>
       </c>
       <c r="C277" t="s">
-        <v>1479</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="278">
@@ -8527,10 +8104,10 @@
         <v>278</v>
       </c>
       <c r="B278" t="s">
-        <v>879</v>
+        <v>832</v>
       </c>
       <c r="C278" t="s">
-        <v>1480</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="279">
@@ -8538,10 +8115,10 @@
         <v>279</v>
       </c>
       <c r="B279" t="s">
-        <v>880</v>
+        <v>833</v>
       </c>
       <c r="C279" t="s">
-        <v>1481</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="280">
@@ -8549,10 +8126,10 @@
         <v>280</v>
       </c>
       <c r="B280" t="s">
-        <v>881</v>
+        <v>834</v>
       </c>
       <c r="C280" t="s">
-        <v>1482</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="281">
@@ -8560,10 +8137,10 @@
         <v>281</v>
       </c>
       <c r="B281" t="s">
-        <v>882</v>
+        <v>835</v>
       </c>
       <c r="C281" t="s">
-        <v>1483</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="282">
@@ -8571,10 +8148,10 @@
         <v>282</v>
       </c>
       <c r="B282" t="s">
-        <v>883</v>
+        <v>836</v>
       </c>
       <c r="C282" t="s">
-        <v>1484</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="283">
@@ -8582,10 +8159,10 @@
         <v>283</v>
       </c>
       <c r="B283" t="s">
-        <v>884</v>
+        <v>837</v>
       </c>
       <c r="C283" t="s">
-        <v>1485</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="284">
@@ -8593,10 +8170,10 @@
         <v>284</v>
       </c>
       <c r="B284" t="s">
-        <v>885</v>
+        <v>838</v>
       </c>
       <c r="C284" t="s">
-        <v>1486</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="285">
@@ -8604,10 +8181,10 @@
         <v>285</v>
       </c>
       <c r="B285" t="s">
-        <v>886</v>
+        <v>839</v>
       </c>
       <c r="C285" t="s">
-        <v>1487</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="286">
@@ -8615,10 +8192,10 @@
         <v>286</v>
       </c>
       <c r="B286" t="s">
-        <v>887</v>
+        <v>840</v>
       </c>
       <c r="C286" t="s">
-        <v>1488</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="287">
@@ -8626,10 +8203,10 @@
         <v>287</v>
       </c>
       <c r="B287" t="s">
-        <v>888</v>
+        <v>841</v>
       </c>
       <c r="C287" t="s">
-        <v>1489</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="288">
@@ -8637,10 +8214,10 @@
         <v>288</v>
       </c>
       <c r="B288" t="s">
-        <v>889</v>
+        <v>842</v>
       </c>
       <c r="C288" t="s">
-        <v>1490</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="289">
@@ -8648,10 +8225,10 @@
         <v>289</v>
       </c>
       <c r="B289" t="s">
-        <v>890</v>
+        <v>843</v>
       </c>
       <c r="C289" t="s">
-        <v>1491</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="290">
@@ -8659,10 +8236,10 @@
         <v>290</v>
       </c>
       <c r="B290" t="s">
-        <v>891</v>
+        <v>844</v>
       </c>
       <c r="C290" t="s">
-        <v>1492</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="291">
@@ -8670,10 +8247,10 @@
         <v>291</v>
       </c>
       <c r="B291" t="s">
-        <v>892</v>
+        <v>845</v>
       </c>
       <c r="C291" t="s">
-        <v>1493</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="292">
@@ -8681,10 +8258,10 @@
         <v>292</v>
       </c>
       <c r="B292" t="s">
-        <v>893</v>
+        <v>846</v>
       </c>
       <c r="C292" t="s">
-        <v>1494</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="293">
@@ -8692,10 +8269,10 @@
         <v>293</v>
       </c>
       <c r="B293" t="s">
-        <v>894</v>
+        <v>847</v>
       </c>
       <c r="C293" t="s">
-        <v>1495</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="294">
@@ -8703,10 +8280,10 @@
         <v>294</v>
       </c>
       <c r="B294" t="s">
-        <v>895</v>
+        <v>848</v>
       </c>
       <c r="C294" t="s">
-        <v>1496</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="295">
@@ -8714,10 +8291,10 @@
         <v>295</v>
       </c>
       <c r="B295" t="s">
-        <v>896</v>
+        <v>849</v>
       </c>
       <c r="C295" t="s">
-        <v>1497</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="296">
@@ -8725,10 +8302,10 @@
         <v>296</v>
       </c>
       <c r="B296" t="s">
-        <v>897</v>
+        <v>850</v>
       </c>
       <c r="C296" t="s">
-        <v>1498</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="297">
@@ -8736,10 +8313,10 @@
         <v>297</v>
       </c>
       <c r="B297" t="s">
-        <v>898</v>
+        <v>851</v>
       </c>
       <c r="C297" t="s">
-        <v>1499</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="298">
@@ -8747,10 +8324,10 @@
         <v>298</v>
       </c>
       <c r="B298" t="s">
-        <v>899</v>
+        <v>852</v>
       </c>
       <c r="C298" t="s">
-        <v>1500</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="299">
@@ -8758,10 +8335,10 @@
         <v>299</v>
       </c>
       <c r="B299" t="s">
-        <v>900</v>
+        <v>853</v>
       </c>
       <c r="C299" t="s">
-        <v>1501</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="300">
@@ -8769,10 +8346,10 @@
         <v>300</v>
       </c>
       <c r="B300" t="s">
-        <v>901</v>
+        <v>854</v>
       </c>
       <c r="C300" t="s">
-        <v>1502</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="301">
@@ -8780,10 +8357,10 @@
         <v>301</v>
       </c>
       <c r="B301" t="s">
-        <v>902</v>
+        <v>855</v>
       </c>
       <c r="C301" t="s">
-        <v>1503</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="302">
@@ -8791,10 +8368,10 @@
         <v>302</v>
       </c>
       <c r="B302" t="s">
-        <v>903</v>
+        <v>856</v>
       </c>
       <c r="C302" t="s">
-        <v>1504</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="303">
@@ -8802,10 +8379,10 @@
         <v>303</v>
       </c>
       <c r="B303" t="s">
-        <v>904</v>
+        <v>857</v>
       </c>
       <c r="C303" t="s">
-        <v>1505</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="304">
@@ -8813,10 +8390,10 @@
         <v>304</v>
       </c>
       <c r="B304" t="s">
-        <v>905</v>
+        <v>858</v>
       </c>
       <c r="C304" t="s">
-        <v>1506</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="305">
@@ -8824,10 +8401,10 @@
         <v>305</v>
       </c>
       <c r="B305" t="s">
-        <v>906</v>
+        <v>859</v>
       </c>
       <c r="C305" t="s">
-        <v>1507</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="306">
@@ -8835,10 +8412,10 @@
         <v>306</v>
       </c>
       <c r="B306" t="s">
-        <v>907</v>
+        <v>860</v>
       </c>
       <c r="C306" t="s">
-        <v>1508</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="307">
@@ -8846,10 +8423,10 @@
         <v>307</v>
       </c>
       <c r="B307" t="s">
-        <v>908</v>
+        <v>861</v>
       </c>
       <c r="C307" t="s">
-        <v>1509</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="308">
@@ -8857,10 +8434,10 @@
         <v>308</v>
       </c>
       <c r="B308" t="s">
-        <v>909</v>
+        <v>862</v>
       </c>
       <c r="C308" t="s">
-        <v>1510</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="309">
@@ -8868,10 +8445,10 @@
         <v>309</v>
       </c>
       <c r="B309" t="s">
-        <v>910</v>
+        <v>863</v>
       </c>
       <c r="C309" t="s">
-        <v>1511</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="310">
@@ -8879,10 +8456,10 @@
         <v>310</v>
       </c>
       <c r="B310" t="s">
-        <v>911</v>
+        <v>864</v>
       </c>
       <c r="C310" t="s">
-        <v>1512</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="311">
@@ -8890,10 +8467,10 @@
         <v>311</v>
       </c>
       <c r="B311" t="s">
-        <v>912</v>
+        <v>865</v>
       </c>
       <c r="C311" t="s">
-        <v>1513</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="312">
@@ -8901,10 +8478,10 @@
         <v>312</v>
       </c>
       <c r="B312" t="s">
-        <v>913</v>
+        <v>866</v>
       </c>
       <c r="C312" t="s">
-        <v>1514</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="313">
@@ -8912,10 +8489,10 @@
         <v>313</v>
       </c>
       <c r="B313" t="s">
-        <v>914</v>
+        <v>867</v>
       </c>
       <c r="C313" t="s">
-        <v>1515</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="314">
@@ -8923,10 +8500,10 @@
         <v>314</v>
       </c>
       <c r="B314" t="s">
-        <v>915</v>
+        <v>868</v>
       </c>
       <c r="C314" t="s">
-        <v>1516</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="315">
@@ -8934,10 +8511,10 @@
         <v>315</v>
       </c>
       <c r="B315" t="s">
-        <v>916</v>
+        <v>869</v>
       </c>
       <c r="C315" t="s">
-        <v>1517</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="316">
@@ -8945,10 +8522,10 @@
         <v>316</v>
       </c>
       <c r="B316" t="s">
-        <v>917</v>
+        <v>870</v>
       </c>
       <c r="C316" t="s">
-        <v>1518</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="317">
@@ -8956,10 +8533,10 @@
         <v>317</v>
       </c>
       <c r="B317" t="s">
-        <v>918</v>
+        <v>871</v>
       </c>
       <c r="C317" t="s">
-        <v>1519</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="318">
@@ -8967,10 +8544,10 @@
         <v>318</v>
       </c>
       <c r="B318" t="s">
-        <v>919</v>
+        <v>872</v>
       </c>
       <c r="C318" t="s">
-        <v>1520</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="319">
@@ -8978,10 +8555,10 @@
         <v>319</v>
       </c>
       <c r="B319" t="s">
-        <v>920</v>
+        <v>873</v>
       </c>
       <c r="C319" t="s">
-        <v>1521</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="320">
@@ -8989,10 +8566,10 @@
         <v>320</v>
       </c>
       <c r="B320" t="s">
-        <v>921</v>
+        <v>874</v>
       </c>
       <c r="C320" t="s">
-        <v>1522</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="321">
@@ -9000,10 +8577,10 @@
         <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>922</v>
+        <v>875</v>
       </c>
       <c r="C321" t="s">
-        <v>1523</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="322">
@@ -9011,10 +8588,10 @@
         <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>923</v>
+        <v>876</v>
       </c>
       <c r="C322" t="s">
-        <v>1524</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="323">
@@ -9022,10 +8599,10 @@
         <v>323</v>
       </c>
       <c r="B323" t="s">
-        <v>924</v>
+        <v>877</v>
       </c>
       <c r="C323" t="s">
-        <v>1525</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="324">
@@ -9033,10 +8610,10 @@
         <v>324</v>
       </c>
       <c r="B324" t="s">
-        <v>925</v>
+        <v>878</v>
       </c>
       <c r="C324" t="s">
-        <v>1526</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="325">
@@ -9044,10 +8621,10 @@
         <v>325</v>
       </c>
       <c r="B325" t="s">
-        <v>926</v>
+        <v>879</v>
       </c>
       <c r="C325" t="s">
-        <v>1527</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="326">
@@ -9055,10 +8632,10 @@
         <v>326</v>
       </c>
       <c r="B326" t="s">
-        <v>927</v>
+        <v>880</v>
       </c>
       <c r="C326" t="s">
-        <v>1528</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="327">
@@ -9066,10 +8643,10 @@
         <v>327</v>
       </c>
       <c r="B327" t="s">
-        <v>928</v>
+        <v>881</v>
       </c>
       <c r="C327" t="s">
-        <v>1529</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="328">
@@ -9077,10 +8654,10 @@
         <v>328</v>
       </c>
       <c r="B328" t="s">
-        <v>929</v>
+        <v>882</v>
       </c>
       <c r="C328" t="s">
-        <v>1530</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="329">
@@ -9088,10 +8665,10 @@
         <v>329</v>
       </c>
       <c r="B329" t="s">
-        <v>930</v>
+        <v>883</v>
       </c>
       <c r="C329" t="s">
-        <v>1531</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="330">
@@ -9099,10 +8676,10 @@
         <v>330</v>
       </c>
       <c r="B330" t="s">
-        <v>931</v>
+        <v>884</v>
       </c>
       <c r="C330" t="s">
-        <v>1532</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="331">
@@ -9110,10 +8687,10 @@
         <v>331</v>
       </c>
       <c r="B331" t="s">
-        <v>932</v>
+        <v>885</v>
       </c>
       <c r="C331" t="s">
-        <v>1533</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="332">
@@ -9121,10 +8698,10 @@
         <v>332</v>
       </c>
       <c r="B332" t="s">
-        <v>933</v>
+        <v>886</v>
       </c>
       <c r="C332" t="s">
-        <v>1534</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="333">
@@ -9132,10 +8709,10 @@
         <v>333</v>
       </c>
       <c r="B333" t="s">
-        <v>934</v>
+        <v>887</v>
       </c>
       <c r="C333" t="s">
-        <v>1535</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="334">
@@ -9143,10 +8720,10 @@
         <v>334</v>
       </c>
       <c r="B334" t="s">
-        <v>935</v>
+        <v>888</v>
       </c>
       <c r="C334" t="s">
-        <v>1536</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="335">
@@ -9154,10 +8731,10 @@
         <v>335</v>
       </c>
       <c r="B335" t="s">
-        <v>936</v>
+        <v>889</v>
       </c>
       <c r="C335" t="s">
-        <v>1537</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="336">
@@ -9165,10 +8742,10 @@
         <v>336</v>
       </c>
       <c r="B336" t="s">
-        <v>937</v>
+        <v>890</v>
       </c>
       <c r="C336" t="s">
-        <v>1538</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="337">
@@ -9176,10 +8753,10 @@
         <v>337</v>
       </c>
       <c r="B337" t="s">
-        <v>938</v>
+        <v>891</v>
       </c>
       <c r="C337" t="s">
-        <v>1539</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="338">
@@ -9187,10 +8764,10 @@
         <v>338</v>
       </c>
       <c r="B338" t="s">
-        <v>939</v>
+        <v>892</v>
       </c>
       <c r="C338" t="s">
-        <v>1540</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="339">
@@ -9198,10 +8775,10 @@
         <v>339</v>
       </c>
       <c r="B339" t="s">
-        <v>940</v>
+        <v>893</v>
       </c>
       <c r="C339" t="s">
-        <v>1541</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="340">
@@ -9209,10 +8786,10 @@
         <v>340</v>
       </c>
       <c r="B340" t="s">
-        <v>941</v>
+        <v>894</v>
       </c>
       <c r="C340" t="s">
-        <v>1542</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="341">
@@ -9220,10 +8797,10 @@
         <v>341</v>
       </c>
       <c r="B341" t="s">
-        <v>942</v>
+        <v>895</v>
       </c>
       <c r="C341" t="s">
-        <v>1543</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="342">
@@ -9231,10 +8808,10 @@
         <v>342</v>
       </c>
       <c r="B342" t="s">
-        <v>943</v>
+        <v>896</v>
       </c>
       <c r="C342" t="s">
-        <v>1544</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="343">
@@ -9242,10 +8819,10 @@
         <v>343</v>
       </c>
       <c r="B343" t="s">
-        <v>944</v>
+        <v>897</v>
       </c>
       <c r="C343" t="s">
-        <v>1545</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="344">
@@ -9253,10 +8830,10 @@
         <v>344</v>
       </c>
       <c r="B344" t="s">
-        <v>945</v>
+        <v>898</v>
       </c>
       <c r="C344" t="s">
-        <v>1546</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="345">
@@ -9264,10 +8841,10 @@
         <v>345</v>
       </c>
       <c r="B345" t="s">
-        <v>946</v>
+        <v>899</v>
       </c>
       <c r="C345" t="s">
-        <v>1547</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="346">
@@ -9275,10 +8852,10 @@
         <v>346</v>
       </c>
       <c r="B346" t="s">
-        <v>947</v>
+        <v>900</v>
       </c>
       <c r="C346" t="s">
-        <v>1548</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="347">
@@ -9286,10 +8863,10 @@
         <v>347</v>
       </c>
       <c r="B347" t="s">
-        <v>948</v>
+        <v>901</v>
       </c>
       <c r="C347" t="s">
-        <v>1549</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="348">
@@ -9297,10 +8874,10 @@
         <v>348</v>
       </c>
       <c r="B348" t="s">
-        <v>949</v>
+        <v>902</v>
       </c>
       <c r="C348" t="s">
-        <v>1550</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="349">
@@ -9308,10 +8885,10 @@
         <v>349</v>
       </c>
       <c r="B349" t="s">
-        <v>950</v>
+        <v>903</v>
       </c>
       <c r="C349" t="s">
-        <v>1551</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="350">
@@ -9319,10 +8896,10 @@
         <v>350</v>
       </c>
       <c r="B350" t="s">
-        <v>951</v>
+        <v>904</v>
       </c>
       <c r="C350" t="s">
-        <v>1552</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="351">
@@ -9330,10 +8907,10 @@
         <v>351</v>
       </c>
       <c r="B351" t="s">
-        <v>952</v>
+        <v>905</v>
       </c>
       <c r="C351" t="s">
-        <v>1553</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="352">
@@ -9341,10 +8918,10 @@
         <v>352</v>
       </c>
       <c r="B352" t="s">
-        <v>953</v>
+        <v>906</v>
       </c>
       <c r="C352" t="s">
-        <v>1554</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="353">
@@ -9352,10 +8929,10 @@
         <v>353</v>
       </c>
       <c r="B353" t="s">
-        <v>954</v>
+        <v>907</v>
       </c>
       <c r="C353" t="s">
-        <v>1555</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="354">
@@ -9363,10 +8940,10 @@
         <v>354</v>
       </c>
       <c r="B354" t="s">
-        <v>955</v>
+        <v>908</v>
       </c>
       <c r="C354" t="s">
-        <v>1556</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="355">
@@ -9374,10 +8951,10 @@
         <v>355</v>
       </c>
       <c r="B355" t="s">
-        <v>956</v>
+        <v>909</v>
       </c>
       <c r="C355" t="s">
-        <v>1557</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="356">
@@ -9385,10 +8962,10 @@
         <v>356</v>
       </c>
       <c r="B356" t="s">
-        <v>957</v>
+        <v>910</v>
       </c>
       <c r="C356" t="s">
-        <v>1558</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="357">
@@ -9396,10 +8973,10 @@
         <v>357</v>
       </c>
       <c r="B357" t="s">
-        <v>958</v>
+        <v>911</v>
       </c>
       <c r="C357" t="s">
-        <v>1559</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="358">
@@ -9407,10 +8984,10 @@
         <v>358</v>
       </c>
       <c r="B358" t="s">
-        <v>959</v>
+        <v>912</v>
       </c>
       <c r="C358" t="s">
-        <v>1560</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="359">
@@ -9418,10 +8995,10 @@
         <v>359</v>
       </c>
       <c r="B359" t="s">
-        <v>960</v>
+        <v>913</v>
       </c>
       <c r="C359" t="s">
-        <v>1561</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="360">
@@ -9429,10 +9006,10 @@
         <v>360</v>
       </c>
       <c r="B360" t="s">
-        <v>961</v>
+        <v>914</v>
       </c>
       <c r="C360" t="s">
-        <v>1562</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="361">
@@ -9440,10 +9017,10 @@
         <v>361</v>
       </c>
       <c r="B361" t="s">
-        <v>962</v>
+        <v>915</v>
       </c>
       <c r="C361" t="s">
-        <v>1563</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="362">
@@ -9451,10 +9028,10 @@
         <v>362</v>
       </c>
       <c r="B362" t="s">
-        <v>963</v>
+        <v>916</v>
       </c>
       <c r="C362" t="s">
-        <v>1564</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="363">
@@ -9462,10 +9039,10 @@
         <v>363</v>
       </c>
       <c r="B363" t="s">
-        <v>964</v>
+        <v>917</v>
       </c>
       <c r="C363" t="s">
-        <v>1565</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="364">
@@ -9473,10 +9050,10 @@
         <v>364</v>
       </c>
       <c r="B364" t="s">
-        <v>965</v>
+        <v>918</v>
       </c>
       <c r="C364" t="s">
-        <v>1566</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="365">
@@ -9484,10 +9061,10 @@
         <v>365</v>
       </c>
       <c r="B365" t="s">
-        <v>966</v>
+        <v>919</v>
       </c>
       <c r="C365" t="s">
-        <v>1567</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="366">
@@ -9495,10 +9072,10 @@
         <v>366</v>
       </c>
       <c r="B366" t="s">
-        <v>967</v>
+        <v>920</v>
       </c>
       <c r="C366" t="s">
-        <v>1568</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="367">
@@ -9506,10 +9083,10 @@
         <v>367</v>
       </c>
       <c r="B367" t="s">
-        <v>968</v>
+        <v>921</v>
       </c>
       <c r="C367" t="s">
-        <v>1569</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="368">
@@ -9517,10 +9094,10 @@
         <v>368</v>
       </c>
       <c r="B368" t="s">
-        <v>969</v>
+        <v>922</v>
       </c>
       <c r="C368" t="s">
-        <v>1570</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="369">
@@ -9528,10 +9105,10 @@
         <v>369</v>
       </c>
       <c r="B369" t="s">
-        <v>970</v>
+        <v>923</v>
       </c>
       <c r="C369" t="s">
-        <v>1571</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="370">
@@ -9539,10 +9116,10 @@
         <v>370</v>
       </c>
       <c r="B370" t="s">
-        <v>971</v>
+        <v>924</v>
       </c>
       <c r="C370" t="s">
-        <v>1572</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="371">
@@ -9550,10 +9127,10 @@
         <v>371</v>
       </c>
       <c r="B371" t="s">
-        <v>972</v>
+        <v>925</v>
       </c>
       <c r="C371" t="s">
-        <v>1573</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="372">
@@ -9561,10 +9138,10 @@
         <v>372</v>
       </c>
       <c r="B372" t="s">
-        <v>973</v>
+        <v>926</v>
       </c>
       <c r="C372" t="s">
-        <v>1574</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="373">
@@ -9572,10 +9149,10 @@
         <v>373</v>
       </c>
       <c r="B373" t="s">
-        <v>974</v>
+        <v>927</v>
       </c>
       <c r="C373" t="s">
-        <v>1575</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="374">
@@ -9583,10 +9160,10 @@
         <v>374</v>
       </c>
       <c r="B374" t="s">
-        <v>975</v>
+        <v>928</v>
       </c>
       <c r="C374" t="s">
-        <v>1576</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="375">
@@ -9594,10 +9171,10 @@
         <v>375</v>
       </c>
       <c r="B375" t="s">
-        <v>976</v>
+        <v>929</v>
       </c>
       <c r="C375" t="s">
-        <v>1577</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="376">
@@ -9605,10 +9182,10 @@
         <v>376</v>
       </c>
       <c r="B376" t="s">
-        <v>977</v>
+        <v>930</v>
       </c>
       <c r="C376" t="s">
-        <v>1578</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="377">
@@ -9616,10 +9193,10 @@
         <v>377</v>
       </c>
       <c r="B377" t="s">
-        <v>978</v>
+        <v>931</v>
       </c>
       <c r="C377" t="s">
-        <v>1579</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="378">
@@ -9627,10 +9204,10 @@
         <v>378</v>
       </c>
       <c r="B378" t="s">
-        <v>979</v>
+        <v>932</v>
       </c>
       <c r="C378" t="s">
-        <v>1580</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="379">
@@ -9638,10 +9215,10 @@
         <v>379</v>
       </c>
       <c r="B379" t="s">
-        <v>980</v>
+        <v>933</v>
       </c>
       <c r="C379" t="s">
-        <v>1581</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="380">
@@ -9649,10 +9226,10 @@
         <v>380</v>
       </c>
       <c r="B380" t="s">
-        <v>981</v>
+        <v>934</v>
       </c>
       <c r="C380" t="s">
-        <v>1582</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="381">
@@ -9660,10 +9237,10 @@
         <v>381</v>
       </c>
       <c r="B381" t="s">
-        <v>982</v>
+        <v>935</v>
       </c>
       <c r="C381" t="s">
-        <v>1583</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="382">
@@ -9671,10 +9248,10 @@
         <v>382</v>
       </c>
       <c r="B382" t="s">
-        <v>983</v>
+        <v>936</v>
       </c>
       <c r="C382" t="s">
-        <v>1584</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="383">
@@ -9682,10 +9259,10 @@
         <v>383</v>
       </c>
       <c r="B383" t="s">
-        <v>984</v>
+        <v>937</v>
       </c>
       <c r="C383" t="s">
-        <v>1585</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="384">
@@ -9693,10 +9270,10 @@
         <v>384</v>
       </c>
       <c r="B384" t="s">
-        <v>985</v>
+        <v>938</v>
       </c>
       <c r="C384" t="s">
-        <v>1586</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="385">
@@ -9704,10 +9281,10 @@
         <v>385</v>
       </c>
       <c r="B385" t="s">
-        <v>986</v>
+        <v>939</v>
       </c>
       <c r="C385" t="s">
-        <v>1587</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="386">
@@ -9715,10 +9292,10 @@
         <v>386</v>
       </c>
       <c r="B386" t="s">
-        <v>987</v>
+        <v>940</v>
       </c>
       <c r="C386" t="s">
-        <v>1588</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="387">
@@ -9726,10 +9303,10 @@
         <v>387</v>
       </c>
       <c r="B387" t="s">
-        <v>988</v>
+        <v>941</v>
       </c>
       <c r="C387" t="s">
-        <v>1589</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="388">
@@ -9737,10 +9314,10 @@
         <v>388</v>
       </c>
       <c r="B388" t="s">
-        <v>989</v>
+        <v>942</v>
       </c>
       <c r="C388" t="s">
-        <v>1590</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="389">
@@ -9748,10 +9325,10 @@
         <v>389</v>
       </c>
       <c r="B389" t="s">
-        <v>990</v>
+        <v>943</v>
       </c>
       <c r="C389" t="s">
-        <v>1591</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="390">
@@ -9759,10 +9336,10 @@
         <v>390</v>
       </c>
       <c r="B390" t="s">
-        <v>991</v>
+        <v>944</v>
       </c>
       <c r="C390" t="s">
-        <v>1592</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="391">
@@ -9770,10 +9347,10 @@
         <v>391</v>
       </c>
       <c r="B391" t="s">
-        <v>992</v>
+        <v>945</v>
       </c>
       <c r="C391" t="s">
-        <v>1593</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="392">
@@ -9781,10 +9358,10 @@
         <v>392</v>
       </c>
       <c r="B392" t="s">
-        <v>993</v>
+        <v>946</v>
       </c>
       <c r="C392" t="s">
-        <v>1594</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="393">
@@ -9792,10 +9369,10 @@
         <v>393</v>
       </c>
       <c r="B393" t="s">
-        <v>994</v>
+        <v>947</v>
       </c>
       <c r="C393" t="s">
-        <v>1595</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="394">
@@ -9803,10 +9380,10 @@
         <v>394</v>
       </c>
       <c r="B394" t="s">
-        <v>995</v>
+        <v>948</v>
       </c>
       <c r="C394" t="s">
-        <v>1596</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="395">
@@ -9814,10 +9391,10 @@
         <v>395</v>
       </c>
       <c r="B395" t="s">
-        <v>996</v>
+        <v>949</v>
       </c>
       <c r="C395" t="s">
-        <v>1597</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="396">
@@ -9825,10 +9402,10 @@
         <v>396</v>
       </c>
       <c r="B396" t="s">
-        <v>997</v>
+        <v>950</v>
       </c>
       <c r="C396" t="s">
-        <v>1598</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="397">
@@ -9836,10 +9413,10 @@
         <v>397</v>
       </c>
       <c r="B397" t="s">
-        <v>998</v>
+        <v>951</v>
       </c>
       <c r="C397" t="s">
-        <v>1599</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="398">
@@ -9847,10 +9424,10 @@
         <v>398</v>
       </c>
       <c r="B398" t="s">
-        <v>999</v>
+        <v>952</v>
       </c>
       <c r="C398" t="s">
-        <v>1600</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="399">
@@ -9858,10 +9435,10 @@
         <v>399</v>
       </c>
       <c r="B399" t="s">
-        <v>1000</v>
+        <v>953</v>
       </c>
       <c r="C399" t="s">
-        <v>1601</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="400">
@@ -9869,10 +9446,10 @@
         <v>400</v>
       </c>
       <c r="B400" t="s">
-        <v>1001</v>
+        <v>954</v>
       </c>
       <c r="C400" t="s">
-        <v>1602</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="401">
@@ -9880,10 +9457,10 @@
         <v>401</v>
       </c>
       <c r="B401" t="s">
-        <v>1002</v>
+        <v>955</v>
       </c>
       <c r="C401" t="s">
-        <v>1603</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="402">
@@ -9891,10 +9468,10 @@
         <v>402</v>
       </c>
       <c r="B402" t="s">
-        <v>1003</v>
+        <v>956</v>
       </c>
       <c r="C402" t="s">
-        <v>1604</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="403">
@@ -9902,10 +9479,10 @@
         <v>403</v>
       </c>
       <c r="B403" t="s">
-        <v>1004</v>
+        <v>957</v>
       </c>
       <c r="C403" t="s">
-        <v>1605</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="404">
@@ -9913,10 +9490,10 @@
         <v>404</v>
       </c>
       <c r="B404" t="s">
-        <v>1005</v>
+        <v>958</v>
       </c>
       <c r="C404" t="s">
-        <v>1606</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="405">
@@ -9924,10 +9501,10 @@
         <v>405</v>
       </c>
       <c r="B405" t="s">
-        <v>1006</v>
+        <v>959</v>
       </c>
       <c r="C405" t="s">
-        <v>1607</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="406">
@@ -9935,10 +9512,10 @@
         <v>406</v>
       </c>
       <c r="B406" t="s">
-        <v>1007</v>
+        <v>960</v>
       </c>
       <c r="C406" t="s">
-        <v>1608</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="407">
@@ -9946,10 +9523,10 @@
         <v>407</v>
       </c>
       <c r="B407" t="s">
-        <v>1008</v>
+        <v>961</v>
       </c>
       <c r="C407" t="s">
-        <v>1609</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="408">
@@ -9957,10 +9534,10 @@
         <v>408</v>
       </c>
       <c r="B408" t="s">
-        <v>1009</v>
+        <v>962</v>
       </c>
       <c r="C408" t="s">
-        <v>1610</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="409">
@@ -9968,10 +9545,10 @@
         <v>409</v>
       </c>
       <c r="B409" t="s">
-        <v>1010</v>
+        <v>963</v>
       </c>
       <c r="C409" t="s">
-        <v>1611</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="410">
@@ -9979,10 +9556,10 @@
         <v>410</v>
       </c>
       <c r="B410" t="s">
-        <v>1011</v>
+        <v>964</v>
       </c>
       <c r="C410" t="s">
-        <v>1612</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="411">
@@ -9990,10 +9567,10 @@
         <v>411</v>
       </c>
       <c r="B411" t="s">
-        <v>1012</v>
+        <v>965</v>
       </c>
       <c r="C411" t="s">
-        <v>1613</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="412">
@@ -10001,10 +9578,10 @@
         <v>412</v>
       </c>
       <c r="B412" t="s">
-        <v>1013</v>
+        <v>966</v>
       </c>
       <c r="C412" t="s">
-        <v>1614</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="413">
@@ -10012,10 +9589,10 @@
         <v>413</v>
       </c>
       <c r="B413" t="s">
-        <v>1014</v>
+        <v>967</v>
       </c>
       <c r="C413" t="s">
-        <v>1615</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="414">
@@ -10023,10 +9600,10 @@
         <v>414</v>
       </c>
       <c r="B414" t="s">
-        <v>1015</v>
+        <v>968</v>
       </c>
       <c r="C414" t="s">
-        <v>1616</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="415">
@@ -10034,10 +9611,10 @@
         <v>415</v>
       </c>
       <c r="B415" t="s">
-        <v>1016</v>
+        <v>969</v>
       </c>
       <c r="C415" t="s">
-        <v>1617</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="416">
@@ -10045,10 +9622,10 @@
         <v>416</v>
       </c>
       <c r="B416" t="s">
-        <v>1017</v>
+        <v>970</v>
       </c>
       <c r="C416" t="s">
-        <v>1618</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="417">
@@ -10056,10 +9633,10 @@
         <v>417</v>
       </c>
       <c r="B417" t="s">
-        <v>1018</v>
+        <v>971</v>
       </c>
       <c r="C417" t="s">
-        <v>1619</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="418">
@@ -10067,10 +9644,10 @@
         <v>418</v>
       </c>
       <c r="B418" t="s">
-        <v>1019</v>
+        <v>972</v>
       </c>
       <c r="C418" t="s">
-        <v>1620</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="419">
@@ -10078,10 +9655,10 @@
         <v>419</v>
       </c>
       <c r="B419" t="s">
-        <v>1020</v>
+        <v>973</v>
       </c>
       <c r="C419" t="s">
-        <v>1621</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="420">
@@ -10089,10 +9666,10 @@
         <v>420</v>
       </c>
       <c r="B420" t="s">
-        <v>1021</v>
+        <v>974</v>
       </c>
       <c r="C420" t="s">
-        <v>1622</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="421">
@@ -10100,10 +9677,10 @@
         <v>421</v>
       </c>
       <c r="B421" t="s">
-        <v>1022</v>
+        <v>975</v>
       </c>
       <c r="C421" t="s">
-        <v>1623</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="422">
@@ -10111,10 +9688,10 @@
         <v>422</v>
       </c>
       <c r="B422" t="s">
-        <v>1023</v>
+        <v>976</v>
       </c>
       <c r="C422" t="s">
-        <v>1624</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="423">
@@ -10122,10 +9699,10 @@
         <v>423</v>
       </c>
       <c r="B423" t="s">
-        <v>1024</v>
+        <v>977</v>
       </c>
       <c r="C423" t="s">
-        <v>1625</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="424">
@@ -10133,10 +9710,10 @@
         <v>424</v>
       </c>
       <c r="B424" t="s">
-        <v>1025</v>
+        <v>978</v>
       </c>
       <c r="C424" t="s">
-        <v>1626</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="425">
@@ -10144,10 +9721,10 @@
         <v>425</v>
       </c>
       <c r="B425" t="s">
-        <v>1026</v>
+        <v>979</v>
       </c>
       <c r="C425" t="s">
-        <v>1627</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="426">
@@ -10155,10 +9732,10 @@
         <v>426</v>
       </c>
       <c r="B426" t="s">
-        <v>1027</v>
+        <v>980</v>
       </c>
       <c r="C426" t="s">
-        <v>1628</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="427">
@@ -10166,10 +9743,10 @@
         <v>427</v>
       </c>
       <c r="B427" t="s">
-        <v>1028</v>
+        <v>981</v>
       </c>
       <c r="C427" t="s">
-        <v>1629</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="428">
@@ -10177,10 +9754,10 @@
         <v>428</v>
       </c>
       <c r="B428" t="s">
-        <v>1029</v>
+        <v>982</v>
       </c>
       <c r="C428" t="s">
-        <v>1630</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="429">
@@ -10188,10 +9765,10 @@
         <v>429</v>
       </c>
       <c r="B429" t="s">
-        <v>1030</v>
+        <v>983</v>
       </c>
       <c r="C429" t="s">
-        <v>1631</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="430">
@@ -10199,10 +9776,10 @@
         <v>430</v>
       </c>
       <c r="B430" t="s">
-        <v>1031</v>
+        <v>984</v>
       </c>
       <c r="C430" t="s">
-        <v>1632</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="431">
@@ -10210,10 +9787,10 @@
         <v>431</v>
       </c>
       <c r="B431" t="s">
-        <v>1032</v>
+        <v>985</v>
       </c>
       <c r="C431" t="s">
-        <v>1633</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="432">
@@ -10221,10 +9798,10 @@
         <v>432</v>
       </c>
       <c r="B432" t="s">
-        <v>1033</v>
+        <v>986</v>
       </c>
       <c r="C432" t="s">
-        <v>1634</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="433">
@@ -10232,10 +9809,10 @@
         <v>433</v>
       </c>
       <c r="B433" t="s">
-        <v>1034</v>
+        <v>987</v>
       </c>
       <c r="C433" t="s">
-        <v>1635</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="434">
@@ -10243,10 +9820,10 @@
         <v>434</v>
       </c>
       <c r="B434" t="s">
-        <v>1035</v>
+        <v>988</v>
       </c>
       <c r="C434" t="s">
-        <v>1636</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="435">
@@ -10254,10 +9831,10 @@
         <v>435</v>
       </c>
       <c r="B435" t="s">
-        <v>1036</v>
+        <v>989</v>
       </c>
       <c r="C435" t="s">
-        <v>1637</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="436">
@@ -10265,10 +9842,10 @@
         <v>436</v>
       </c>
       <c r="B436" t="s">
-        <v>1037</v>
+        <v>990</v>
       </c>
       <c r="C436" t="s">
-        <v>1638</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="437">
@@ -10276,10 +9853,10 @@
         <v>437</v>
       </c>
       <c r="B437" t="s">
-        <v>1038</v>
+        <v>991</v>
       </c>
       <c r="C437" t="s">
-        <v>1639</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="438">
@@ -10287,10 +9864,10 @@
         <v>438</v>
       </c>
       <c r="B438" t="s">
-        <v>1039</v>
+        <v>992</v>
       </c>
       <c r="C438" t="s">
-        <v>1640</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="439">
@@ -10298,10 +9875,10 @@
         <v>439</v>
       </c>
       <c r="B439" t="s">
-        <v>1040</v>
+        <v>993</v>
       </c>
       <c r="C439" t="s">
-        <v>1641</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="440">
@@ -10309,10 +9886,10 @@
         <v>440</v>
       </c>
       <c r="B440" t="s">
-        <v>1041</v>
+        <v>994</v>
       </c>
       <c r="C440" t="s">
-        <v>1642</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="441">
@@ -10320,10 +9897,10 @@
         <v>441</v>
       </c>
       <c r="B441" t="s">
-        <v>1042</v>
+        <v>995</v>
       </c>
       <c r="C441" t="s">
-        <v>1643</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="442">
@@ -10331,10 +9908,10 @@
         <v>442</v>
       </c>
       <c r="B442" t="s">
-        <v>1043</v>
+        <v>996</v>
       </c>
       <c r="C442" t="s">
-        <v>1644</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="443">
@@ -10342,10 +9919,10 @@
         <v>443</v>
       </c>
       <c r="B443" t="s">
-        <v>1044</v>
+        <v>997</v>
       </c>
       <c r="C443" t="s">
-        <v>1645</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="444">
@@ -10353,10 +9930,10 @@
         <v>444</v>
       </c>
       <c r="B444" t="s">
-        <v>1045</v>
+        <v>998</v>
       </c>
       <c r="C444" t="s">
-        <v>1646</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="445">
@@ -10364,10 +9941,10 @@
         <v>445</v>
       </c>
       <c r="B445" t="s">
-        <v>1046</v>
+        <v>999</v>
       </c>
       <c r="C445" t="s">
-        <v>1647</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="446">
@@ -10375,10 +9952,10 @@
         <v>446</v>
       </c>
       <c r="B446" t="s">
-        <v>1047</v>
+        <v>1000</v>
       </c>
       <c r="C446" t="s">
-        <v>1648</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="447">
@@ -10386,10 +9963,10 @@
         <v>447</v>
       </c>
       <c r="B447" t="s">
-        <v>1048</v>
+        <v>1001</v>
       </c>
       <c r="C447" t="s">
-        <v>1649</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="448">
@@ -10397,10 +9974,10 @@
         <v>448</v>
       </c>
       <c r="B448" t="s">
-        <v>1049</v>
+        <v>1002</v>
       </c>
       <c r="C448" t="s">
-        <v>1650</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="449">
@@ -10408,10 +9985,10 @@
         <v>449</v>
       </c>
       <c r="B449" t="s">
-        <v>1050</v>
+        <v>1003</v>
       </c>
       <c r="C449" t="s">
-        <v>1651</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="450">
@@ -10419,10 +9996,10 @@
         <v>450</v>
       </c>
       <c r="B450" t="s">
-        <v>1051</v>
+        <v>1004</v>
       </c>
       <c r="C450" t="s">
-        <v>1652</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="451">
@@ -10430,10 +10007,10 @@
         <v>451</v>
       </c>
       <c r="B451" t="s">
-        <v>1052</v>
+        <v>1005</v>
       </c>
       <c r="C451" t="s">
-        <v>1653</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="452">
@@ -10441,10 +10018,10 @@
         <v>452</v>
       </c>
       <c r="B452" t="s">
-        <v>1053</v>
+        <v>1006</v>
       </c>
       <c r="C452" t="s">
-        <v>1654</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="453">
@@ -10452,10 +10029,10 @@
         <v>453</v>
       </c>
       <c r="B453" t="s">
-        <v>1054</v>
+        <v>1007</v>
       </c>
       <c r="C453" t="s">
-        <v>1655</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="454">
@@ -10463,10 +10040,10 @@
         <v>454</v>
       </c>
       <c r="B454" t="s">
-        <v>1055</v>
+        <v>1008</v>
       </c>
       <c r="C454" t="s">
-        <v>1656</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="455">
@@ -10474,10 +10051,10 @@
         <v>455</v>
       </c>
       <c r="B455" t="s">
-        <v>1056</v>
+        <v>1009</v>
       </c>
       <c r="C455" t="s">
-        <v>1657</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="456">
@@ -10485,10 +10062,10 @@
         <v>456</v>
       </c>
       <c r="B456" t="s">
-        <v>1057</v>
+        <v>1010</v>
       </c>
       <c r="C456" t="s">
-        <v>1658</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="457">
@@ -10496,10 +10073,10 @@
         <v>457</v>
       </c>
       <c r="B457" t="s">
-        <v>1058</v>
+        <v>1011</v>
       </c>
       <c r="C457" t="s">
-        <v>1659</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="458">
@@ -10507,10 +10084,10 @@
         <v>458</v>
       </c>
       <c r="B458" t="s">
-        <v>1059</v>
+        <v>1012</v>
       </c>
       <c r="C458" t="s">
-        <v>1660</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="459">
@@ -10518,10 +10095,10 @@
         <v>459</v>
       </c>
       <c r="B459" t="s">
-        <v>1060</v>
+        <v>1013</v>
       </c>
       <c r="C459" t="s">
-        <v>1661</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="460">
@@ -10529,10 +10106,10 @@
         <v>460</v>
       </c>
       <c r="B460" t="s">
-        <v>1061</v>
+        <v>1014</v>
       </c>
       <c r="C460" t="s">
-        <v>1662</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="461">
@@ -10540,10 +10117,10 @@
         <v>461</v>
       </c>
       <c r="B461" t="s">
-        <v>1062</v>
+        <v>1015</v>
       </c>
       <c r="C461" t="s">
-        <v>1663</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="462">
@@ -10551,10 +10128,10 @@
         <v>462</v>
       </c>
       <c r="B462" t="s">
-        <v>1063</v>
+        <v>1016</v>
       </c>
       <c r="C462" t="s">
-        <v>1664</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="463">
@@ -10562,10 +10139,10 @@
         <v>463</v>
       </c>
       <c r="B463" t="s">
-        <v>1064</v>
+        <v>1017</v>
       </c>
       <c r="C463" t="s">
-        <v>1665</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="464">
@@ -10573,10 +10150,10 @@
         <v>464</v>
       </c>
       <c r="B464" t="s">
-        <v>1065</v>
+        <v>1018</v>
       </c>
       <c r="C464" t="s">
-        <v>1666</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="465">
@@ -10584,10 +10161,10 @@
         <v>465</v>
       </c>
       <c r="B465" t="s">
-        <v>1066</v>
+        <v>1019</v>
       </c>
       <c r="C465" t="s">
-        <v>1667</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="466">
@@ -10595,10 +10172,10 @@
         <v>466</v>
       </c>
       <c r="B466" t="s">
-        <v>1067</v>
+        <v>1020</v>
       </c>
       <c r="C466" t="s">
-        <v>1668</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="467">
@@ -10606,10 +10183,10 @@
         <v>467</v>
       </c>
       <c r="B467" t="s">
-        <v>1068</v>
+        <v>1021</v>
       </c>
       <c r="C467" t="s">
-        <v>1669</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="468">
@@ -10617,10 +10194,10 @@
         <v>468</v>
       </c>
       <c r="B468" t="s">
-        <v>1069</v>
+        <v>1022</v>
       </c>
       <c r="C468" t="s">
-        <v>1670</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="469">
@@ -10628,10 +10205,10 @@
         <v>469</v>
       </c>
       <c r="B469" t="s">
-        <v>1070</v>
+        <v>1023</v>
       </c>
       <c r="C469" t="s">
-        <v>1671</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="470">
@@ -10639,10 +10216,10 @@
         <v>470</v>
       </c>
       <c r="B470" t="s">
-        <v>1071</v>
+        <v>1024</v>
       </c>
       <c r="C470" t="s">
-        <v>1672</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="471">
@@ -10650,10 +10227,10 @@
         <v>471</v>
       </c>
       <c r="B471" t="s">
-        <v>1072</v>
+        <v>1025</v>
       </c>
       <c r="C471" t="s">
-        <v>1673</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="472">
@@ -10661,10 +10238,10 @@
         <v>472</v>
       </c>
       <c r="B472" t="s">
-        <v>1073</v>
+        <v>1026</v>
       </c>
       <c r="C472" t="s">
-        <v>1674</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="473">
@@ -10672,10 +10249,10 @@
         <v>473</v>
       </c>
       <c r="B473" t="s">
-        <v>1074</v>
+        <v>1027</v>
       </c>
       <c r="C473" t="s">
-        <v>1675</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="474">
@@ -10683,10 +10260,10 @@
         <v>474</v>
       </c>
       <c r="B474" t="s">
-        <v>1075</v>
+        <v>1028</v>
       </c>
       <c r="C474" t="s">
-        <v>1676</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="475">
@@ -10694,10 +10271,10 @@
         <v>475</v>
       </c>
       <c r="B475" t="s">
-        <v>1076</v>
+        <v>1029</v>
       </c>
       <c r="C475" t="s">
-        <v>1677</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="476">
@@ -10705,10 +10282,10 @@
         <v>476</v>
       </c>
       <c r="B476" t="s">
-        <v>1077</v>
+        <v>1030</v>
       </c>
       <c r="C476" t="s">
-        <v>1678</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="477">
@@ -10716,10 +10293,10 @@
         <v>477</v>
       </c>
       <c r="B477" t="s">
-        <v>1078</v>
+        <v>1031</v>
       </c>
       <c r="C477" t="s">
-        <v>1679</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="478">
@@ -10727,10 +10304,10 @@
         <v>478</v>
       </c>
       <c r="B478" t="s">
-        <v>1079</v>
+        <v>1032</v>
       </c>
       <c r="C478" t="s">
-        <v>1680</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="479">
@@ -10738,10 +10315,10 @@
         <v>479</v>
       </c>
       <c r="B479" t="s">
-        <v>1080</v>
+        <v>1033</v>
       </c>
       <c r="C479" t="s">
-        <v>1681</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="480">
@@ -10749,10 +10326,10 @@
         <v>480</v>
       </c>
       <c r="B480" t="s">
-        <v>1081</v>
+        <v>1034</v>
       </c>
       <c r="C480" t="s">
-        <v>1682</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="481">
@@ -10760,10 +10337,10 @@
         <v>481</v>
       </c>
       <c r="B481" t="s">
-        <v>1082</v>
+        <v>1035</v>
       </c>
       <c r="C481" t="s">
-        <v>1683</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="482">
@@ -10771,10 +10348,10 @@
         <v>482</v>
       </c>
       <c r="B482" t="s">
-        <v>1083</v>
+        <v>1036</v>
       </c>
       <c r="C482" t="s">
-        <v>1684</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="483">
@@ -10782,10 +10359,10 @@
         <v>483</v>
       </c>
       <c r="B483" t="s">
-        <v>1084</v>
+        <v>1037</v>
       </c>
       <c r="C483" t="s">
-        <v>1685</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="484">
@@ -10793,10 +10370,10 @@
         <v>484</v>
       </c>
       <c r="B484" t="s">
-        <v>1085</v>
+        <v>1038</v>
       </c>
       <c r="C484" t="s">
-        <v>1686</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="485">
@@ -10804,10 +10381,10 @@
         <v>485</v>
       </c>
       <c r="B485" t="s">
-        <v>1086</v>
+        <v>1039</v>
       </c>
       <c r="C485" t="s">
-        <v>1687</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="486">
@@ -10815,10 +10392,10 @@
         <v>486</v>
       </c>
       <c r="B486" t="s">
-        <v>1087</v>
+        <v>1040</v>
       </c>
       <c r="C486" t="s">
-        <v>1688</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="487">
@@ -10826,10 +10403,10 @@
         <v>487</v>
       </c>
       <c r="B487" t="s">
-        <v>1088</v>
+        <v>1041</v>
       </c>
       <c r="C487" t="s">
-        <v>1689</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="488">
@@ -10837,10 +10414,10 @@
         <v>488</v>
       </c>
       <c r="B488" t="s">
-        <v>1089</v>
+        <v>1042</v>
       </c>
       <c r="C488" t="s">
-        <v>1690</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="489">
@@ -10848,10 +10425,10 @@
         <v>489</v>
       </c>
       <c r="B489" t="s">
-        <v>1090</v>
+        <v>1043</v>
       </c>
       <c r="C489" t="s">
-        <v>1691</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="490">
@@ -10859,10 +10436,10 @@
         <v>490</v>
       </c>
       <c r="B490" t="s">
-        <v>1091</v>
+        <v>1044</v>
       </c>
       <c r="C490" t="s">
-        <v>1692</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="491">
@@ -10870,10 +10447,10 @@
         <v>491</v>
       </c>
       <c r="B491" t="s">
-        <v>1092</v>
+        <v>1045</v>
       </c>
       <c r="C491" t="s">
-        <v>1693</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="492">
@@ -10881,10 +10458,10 @@
         <v>492</v>
       </c>
       <c r="B492" t="s">
-        <v>1093</v>
+        <v>1046</v>
       </c>
       <c r="C492" t="s">
-        <v>1694</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="493">
@@ -10892,10 +10469,10 @@
         <v>493</v>
       </c>
       <c r="B493" t="s">
-        <v>1094</v>
+        <v>1047</v>
       </c>
       <c r="C493" t="s">
-        <v>1695</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="494">
@@ -10903,10 +10480,10 @@
         <v>494</v>
       </c>
       <c r="B494" t="s">
-        <v>1095</v>
+        <v>1048</v>
       </c>
       <c r="C494" t="s">
-        <v>1696</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="495">
@@ -10914,10 +10491,10 @@
         <v>495</v>
       </c>
       <c r="B495" t="s">
-        <v>1096</v>
+        <v>1049</v>
       </c>
       <c r="C495" t="s">
-        <v>1697</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="496">
@@ -10925,10 +10502,10 @@
         <v>496</v>
       </c>
       <c r="B496" t="s">
-        <v>1097</v>
+        <v>1050</v>
       </c>
       <c r="C496" t="s">
-        <v>1698</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="497">
@@ -10936,10 +10513,10 @@
         <v>497</v>
       </c>
       <c r="B497" t="s">
-        <v>1098</v>
+        <v>1051</v>
       </c>
       <c r="C497" t="s">
-        <v>1699</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="498">
@@ -10947,10 +10524,10 @@
         <v>498</v>
       </c>
       <c r="B498" t="s">
-        <v>1099</v>
+        <v>1052</v>
       </c>
       <c r="C498" t="s">
-        <v>1700</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="499">
@@ -10958,10 +10535,10 @@
         <v>499</v>
       </c>
       <c r="B499" t="s">
-        <v>1100</v>
+        <v>1053</v>
       </c>
       <c r="C499" t="s">
-        <v>1701</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="500">
@@ -10969,10 +10546,10 @@
         <v>500</v>
       </c>
       <c r="B500" t="s">
-        <v>1101</v>
+        <v>1054</v>
       </c>
       <c r="C500" t="s">
-        <v>1702</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="501">
@@ -10980,10 +10557,10 @@
         <v>501</v>
       </c>
       <c r="B501" t="s">
-        <v>1102</v>
+        <v>1055</v>
       </c>
       <c r="C501" t="s">
-        <v>1703</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="502">
@@ -10991,10 +10568,10 @@
         <v>502</v>
       </c>
       <c r="B502" t="s">
-        <v>1103</v>
+        <v>1056</v>
       </c>
       <c r="C502" t="s">
-        <v>1704</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="503">
@@ -11002,10 +10579,10 @@
         <v>503</v>
       </c>
       <c r="B503" t="s">
-        <v>1104</v>
+        <v>1057</v>
       </c>
       <c r="C503" t="s">
-        <v>1705</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="504">
@@ -11013,10 +10590,10 @@
         <v>504</v>
       </c>
       <c r="B504" t="s">
-        <v>1105</v>
+        <v>1058</v>
       </c>
       <c r="C504" t="s">
-        <v>1706</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="505">
@@ -11024,10 +10601,10 @@
         <v>505</v>
       </c>
       <c r="B505" t="s">
-        <v>1106</v>
+        <v>1059</v>
       </c>
       <c r="C505" t="s">
-        <v>1707</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="506">
@@ -11035,10 +10612,10 @@
         <v>506</v>
       </c>
       <c r="B506" t="s">
-        <v>1107</v>
+        <v>1060</v>
       </c>
       <c r="C506" t="s">
-        <v>1708</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="507">
@@ -11046,10 +10623,10 @@
         <v>507</v>
       </c>
       <c r="B507" t="s">
-        <v>1108</v>
+        <v>1061</v>
       </c>
       <c r="C507" t="s">
-        <v>1709</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="508">
@@ -11057,10 +10634,10 @@
         <v>508</v>
       </c>
       <c r="B508" t="s">
-        <v>1109</v>
+        <v>1062</v>
       </c>
       <c r="C508" t="s">
-        <v>1710</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="509">
@@ -11068,10 +10645,10 @@
         <v>509</v>
       </c>
       <c r="B509" t="s">
-        <v>1110</v>
+        <v>1063</v>
       </c>
       <c r="C509" t="s">
-        <v>1711</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="510">
@@ -11079,10 +10656,10 @@
         <v>510</v>
       </c>
       <c r="B510" t="s">
-        <v>1111</v>
+        <v>1064</v>
       </c>
       <c r="C510" t="s">
-        <v>1712</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="511">
@@ -11090,10 +10667,10 @@
         <v>511</v>
       </c>
       <c r="B511" t="s">
-        <v>1112</v>
+        <v>1065</v>
       </c>
       <c r="C511" t="s">
-        <v>1713</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="512">
@@ -11101,10 +10678,10 @@
         <v>512</v>
       </c>
       <c r="B512" t="s">
-        <v>1113</v>
+        <v>1066</v>
       </c>
       <c r="C512" t="s">
-        <v>1714</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="513">
@@ -11112,10 +10689,10 @@
         <v>513</v>
       </c>
       <c r="B513" t="s">
-        <v>1114</v>
+        <v>1067</v>
       </c>
       <c r="C513" t="s">
-        <v>1715</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="514">
@@ -11123,10 +10700,10 @@
         <v>514</v>
       </c>
       <c r="B514" t="s">
-        <v>1115</v>
+        <v>1068</v>
       </c>
       <c r="C514" t="s">
-        <v>1716</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="515">
@@ -11134,10 +10711,10 @@
         <v>515</v>
       </c>
       <c r="B515" t="s">
-        <v>1116</v>
+        <v>1069</v>
       </c>
       <c r="C515" t="s">
-        <v>1717</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="516">
@@ -11145,10 +10722,10 @@
         <v>516</v>
       </c>
       <c r="B516" t="s">
-        <v>1117</v>
+        <v>1070</v>
       </c>
       <c r="C516" t="s">
-        <v>1718</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="517">
@@ -11156,10 +10733,10 @@
         <v>517</v>
       </c>
       <c r="B517" t="s">
-        <v>1118</v>
+        <v>1071</v>
       </c>
       <c r="C517" t="s">
-        <v>1719</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="518">
@@ -11167,10 +10744,10 @@
         <v>518</v>
       </c>
       <c r="B518" t="s">
-        <v>1119</v>
+        <v>1072</v>
       </c>
       <c r="C518" t="s">
-        <v>1720</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="519">
@@ -11178,10 +10755,10 @@
         <v>519</v>
       </c>
       <c r="B519" t="s">
-        <v>1120</v>
+        <v>1073</v>
       </c>
       <c r="C519" t="s">
-        <v>1721</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="520">
@@ -11189,10 +10766,10 @@
         <v>520</v>
       </c>
       <c r="B520" t="s">
-        <v>1121</v>
+        <v>1074</v>
       </c>
       <c r="C520" t="s">
-        <v>1722</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="521">
@@ -11200,10 +10777,10 @@
         <v>521</v>
       </c>
       <c r="B521" t="s">
-        <v>1122</v>
+        <v>1075</v>
       </c>
       <c r="C521" t="s">
-        <v>1723</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="522">
@@ -11211,10 +10788,10 @@
         <v>522</v>
       </c>
       <c r="B522" t="s">
-        <v>1123</v>
+        <v>1076</v>
       </c>
       <c r="C522" t="s">
-        <v>1724</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="523">
@@ -11222,10 +10799,10 @@
         <v>523</v>
       </c>
       <c r="B523" t="s">
-        <v>1124</v>
+        <v>1077</v>
       </c>
       <c r="C523" t="s">
-        <v>1725</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="524">
@@ -11233,10 +10810,10 @@
         <v>524</v>
       </c>
       <c r="B524" t="s">
-        <v>1125</v>
+        <v>1078</v>
       </c>
       <c r="C524" t="s">
-        <v>1726</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="525">
@@ -11244,10 +10821,10 @@
         <v>525</v>
       </c>
       <c r="B525" t="s">
-        <v>1126</v>
+        <v>1079</v>
       </c>
       <c r="C525" t="s">
-        <v>1727</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="526">
@@ -11255,10 +10832,10 @@
         <v>526</v>
       </c>
       <c r="B526" t="s">
-        <v>1127</v>
+        <v>1080</v>
       </c>
       <c r="C526" t="s">
-        <v>1728</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="527">
@@ -11266,10 +10843,10 @@
         <v>527</v>
       </c>
       <c r="B527" t="s">
-        <v>1128</v>
+        <v>1081</v>
       </c>
       <c r="C527" t="s">
-        <v>1729</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="528">
@@ -11277,10 +10854,10 @@
         <v>528</v>
       </c>
       <c r="B528" t="s">
-        <v>1129</v>
+        <v>1082</v>
       </c>
       <c r="C528" t="s">
-        <v>1730</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="529">
@@ -11288,10 +10865,10 @@
         <v>529</v>
       </c>
       <c r="B529" t="s">
-        <v>1130</v>
+        <v>1083</v>
       </c>
       <c r="C529" t="s">
-        <v>1731</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="530">
@@ -11299,10 +10876,10 @@
         <v>530</v>
       </c>
       <c r="B530" t="s">
-        <v>1131</v>
+        <v>1084</v>
       </c>
       <c r="C530" t="s">
-        <v>1732</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="531">
@@ -11310,10 +10887,10 @@
         <v>531</v>
       </c>
       <c r="B531" t="s">
-        <v>1132</v>
+        <v>1085</v>
       </c>
       <c r="C531" t="s">
-        <v>1733</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="532">
@@ -11321,10 +10898,10 @@
         <v>532</v>
       </c>
       <c r="B532" t="s">
-        <v>1133</v>
+        <v>1086</v>
       </c>
       <c r="C532" t="s">
-        <v>1734</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="533">
@@ -11332,10 +10909,10 @@
         <v>533</v>
       </c>
       <c r="B533" t="s">
-        <v>1134</v>
+        <v>1087</v>
       </c>
       <c r="C533" t="s">
-        <v>1735</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="534">
@@ -11343,10 +10920,10 @@
         <v>534</v>
       </c>
       <c r="B534" t="s">
-        <v>1135</v>
+        <v>1088</v>
       </c>
       <c r="C534" t="s">
-        <v>1736</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="535">
@@ -11354,10 +10931,10 @@
         <v>535</v>
       </c>
       <c r="B535" t="s">
-        <v>1136</v>
+        <v>1089</v>
       </c>
       <c r="C535" t="s">
-        <v>1737</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="536">
@@ -11365,10 +10942,10 @@
         <v>536</v>
       </c>
       <c r="B536" t="s">
-        <v>1137</v>
+        <v>1090</v>
       </c>
       <c r="C536" t="s">
-        <v>1738</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="537">
@@ -11376,10 +10953,10 @@
         <v>537</v>
       </c>
       <c r="B537" t="s">
-        <v>1138</v>
+        <v>1091</v>
       </c>
       <c r="C537" t="s">
-        <v>1739</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="538">
@@ -11387,10 +10964,10 @@
         <v>538</v>
       </c>
       <c r="B538" t="s">
-        <v>1139</v>
+        <v>1092</v>
       </c>
       <c r="C538" t="s">
-        <v>1740</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="539">
@@ -11398,10 +10975,10 @@
         <v>539</v>
       </c>
       <c r="B539" t="s">
-        <v>1140</v>
+        <v>1093</v>
       </c>
       <c r="C539" t="s">
-        <v>1741</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="540">
@@ -11409,10 +10986,10 @@
         <v>540</v>
       </c>
       <c r="B540" t="s">
-        <v>1141</v>
+        <v>1094</v>
       </c>
       <c r="C540" t="s">
-        <v>1742</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="541">
@@ -11420,10 +10997,10 @@
         <v>541</v>
       </c>
       <c r="B541" t="s">
-        <v>1142</v>
+        <v>1095</v>
       </c>
       <c r="C541" t="s">
-        <v>1743</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="542">
@@ -11431,10 +11008,10 @@
         <v>542</v>
       </c>
       <c r="B542" t="s">
-        <v>1143</v>
+        <v>1096</v>
       </c>
       <c r="C542" t="s">
-        <v>1744</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="543">
@@ -11442,10 +11019,10 @@
         <v>543</v>
       </c>
       <c r="B543" t="s">
-        <v>1144</v>
+        <v>1097</v>
       </c>
       <c r="C543" t="s">
-        <v>1745</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="544">
@@ -11453,10 +11030,10 @@
         <v>544</v>
       </c>
       <c r="B544" t="s">
-        <v>1145</v>
+        <v>1098</v>
       </c>
       <c r="C544" t="s">
-        <v>1746</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="545">
@@ -11464,10 +11041,10 @@
         <v>545</v>
       </c>
       <c r="B545" t="s">
-        <v>1146</v>
+        <v>1099</v>
       </c>
       <c r="C545" t="s">
-        <v>1747</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="546">
@@ -11475,10 +11052,10 @@
         <v>546</v>
       </c>
       <c r="B546" t="s">
-        <v>1147</v>
+        <v>1100</v>
       </c>
       <c r="C546" t="s">
-        <v>1748</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="547">
@@ -11486,10 +11063,10 @@
         <v>547</v>
       </c>
       <c r="B547" t="s">
-        <v>1148</v>
+        <v>1101</v>
       </c>
       <c r="C547" t="s">
-        <v>1749</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="548">
@@ -11497,10 +11074,10 @@
         <v>548</v>
       </c>
       <c r="B548" t="s">
-        <v>1149</v>
+        <v>1102</v>
       </c>
       <c r="C548" t="s">
-        <v>1750</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="549">
@@ -11508,10 +11085,10 @@
         <v>549</v>
       </c>
       <c r="B549" t="s">
-        <v>1150</v>
+        <v>1103</v>
       </c>
       <c r="C549" t="s">
-        <v>1751</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="550">
@@ -11519,10 +11096,10 @@
         <v>550</v>
       </c>
       <c r="B550" t="s">
-        <v>1151</v>
+        <v>1104</v>
       </c>
       <c r="C550" t="s">
-        <v>1752</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="551">
@@ -11530,10 +11107,10 @@
         <v>551</v>
       </c>
       <c r="B551" t="s">
-        <v>1152</v>
+        <v>1105</v>
       </c>
       <c r="C551" t="s">
-        <v>1753</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="552">
@@ -11541,10 +11118,10 @@
         <v>552</v>
       </c>
       <c r="B552" t="s">
-        <v>1153</v>
+        <v>1106</v>
       </c>
       <c r="C552" t="s">
-        <v>1754</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="553">
@@ -11552,10 +11129,10 @@
         <v>553</v>
       </c>
       <c r="B553" t="s">
-        <v>1154</v>
+        <v>1107</v>
       </c>
       <c r="C553" t="s">
-        <v>1755</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="554">
@@ -11563,10 +11140,10 @@
         <v>554</v>
       </c>
       <c r="B554" t="s">
-        <v>1155</v>
+        <v>1108</v>
       </c>
       <c r="C554" t="s">
-        <v>1756</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="555">
@@ -11574,527 +11151,10 @@
         <v>555</v>
       </c>
       <c r="B555" t="s">
-        <v>1156</v>
+        <v>1109</v>
       </c>
       <c r="C555" t="s">
-        <v>1757</v>
-      </c>
-    </row>
-    <row r="556">
-      <c r="A556" t="s">
-        <v>556</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1157</v>
-      </c>
-      <c r="C556" t="s">
-        <v>1758</v>
-      </c>
-    </row>
-    <row r="557">
-      <c r="A557" t="s">
-        <v>557</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1158</v>
-      </c>
-      <c r="C557" t="s">
-        <v>1759</v>
-      </c>
-    </row>
-    <row r="558">
-      <c r="A558" t="s">
-        <v>558</v>
-      </c>
-      <c r="B558" t="s">
-        <v>1159</v>
-      </c>
-      <c r="C558" t="s">
-        <v>1760</v>
-      </c>
-    </row>
-    <row r="559">
-      <c r="A559" t="s">
-        <v>559</v>
-      </c>
-      <c r="B559" t="s">
-        <v>1160</v>
-      </c>
-      <c r="C559" t="s">
-        <v>1761</v>
-      </c>
-    </row>
-    <row r="560">
-      <c r="A560" t="s">
-        <v>560</v>
-      </c>
-      <c r="B560" t="s">
-        <v>1161</v>
-      </c>
-      <c r="C560" t="s">
-        <v>1762</v>
-      </c>
-    </row>
-    <row r="561">
-      <c r="A561" t="s">
-        <v>561</v>
-      </c>
-      <c r="B561" t="s">
-        <v>1162</v>
-      </c>
-      <c r="C561" t="s">
-        <v>1763</v>
-      </c>
-    </row>
-    <row r="562">
-      <c r="A562" t="s">
-        <v>562</v>
-      </c>
-      <c r="B562" t="s">
-        <v>1163</v>
-      </c>
-      <c r="C562" t="s">
-        <v>1764</v>
-      </c>
-    </row>
-    <row r="563">
-      <c r="A563" t="s">
-        <v>563</v>
-      </c>
-      <c r="B563" t="s">
-        <v>1164</v>
-      </c>
-      <c r="C563" t="s">
-        <v>1765</v>
-      </c>
-    </row>
-    <row r="564">
-      <c r="A564" t="s">
-        <v>564</v>
-      </c>
-      <c r="B564" t="s">
-        <v>1165</v>
-      </c>
-      <c r="C564" t="s">
-        <v>1766</v>
-      </c>
-    </row>
-    <row r="565">
-      <c r="A565" t="s">
-        <v>565</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1166</v>
-      </c>
-      <c r="C565" t="s">
-        <v>1767</v>
-      </c>
-    </row>
-    <row r="566">
-      <c r="A566" t="s">
-        <v>566</v>
-      </c>
-      <c r="B566" t="s">
-        <v>1167</v>
-      </c>
-      <c r="C566" t="s">
-        <v>1768</v>
-      </c>
-    </row>
-    <row r="567">
-      <c r="A567" t="s">
-        <v>567</v>
-      </c>
-      <c r="B567" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C567" t="s">
-        <v>1769</v>
-      </c>
-    </row>
-    <row r="568">
-      <c r="A568" t="s">
-        <v>568</v>
-      </c>
-      <c r="B568" t="s">
-        <v>1169</v>
-      </c>
-      <c r="C568" t="s">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="569">
-      <c r="A569" t="s">
-        <v>569</v>
-      </c>
-      <c r="B569" t="s">
-        <v>1170</v>
-      </c>
-      <c r="C569" t="s">
-        <v>1771</v>
-      </c>
-    </row>
-    <row r="570">
-      <c r="A570" t="s">
-        <v>570</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C570" t="s">
-        <v>1772</v>
-      </c>
-    </row>
-    <row r="571">
-      <c r="A571" t="s">
-        <v>571</v>
-      </c>
-      <c r="B571" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C571" t="s">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="572">
-      <c r="A572" t="s">
-        <v>572</v>
-      </c>
-      <c r="B572" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C572" t="s">
-        <v>1774</v>
-      </c>
-    </row>
-    <row r="573">
-      <c r="A573" t="s">
-        <v>573</v>
-      </c>
-      <c r="B573" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C573" t="s">
-        <v>1775</v>
-      </c>
-    </row>
-    <row r="574">
-      <c r="A574" t="s">
-        <v>574</v>
-      </c>
-      <c r="B574" t="s">
-        <v>1175</v>
-      </c>
-      <c r="C574" t="s">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="575">
-      <c r="A575" t="s">
-        <v>575</v>
-      </c>
-      <c r="B575" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C575" t="s">
-        <v>1777</v>
-      </c>
-    </row>
-    <row r="576">
-      <c r="A576" t="s">
-        <v>576</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C576" t="s">
-        <v>1778</v>
-      </c>
-    </row>
-    <row r="577">
-      <c r="A577" t="s">
-        <v>577</v>
-      </c>
-      <c r="B577" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C577" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="578">
-      <c r="A578" t="s">
-        <v>578</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C578" t="s">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="579">
-      <c r="A579" t="s">
-        <v>579</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1180</v>
-      </c>
-      <c r="C579" t="s">
-        <v>1781</v>
-      </c>
-    </row>
-    <row r="580">
-      <c r="A580" t="s">
-        <v>580</v>
-      </c>
-      <c r="B580" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C580" t="s">
-        <v>1782</v>
-      </c>
-    </row>
-    <row r="581">
-      <c r="A581" t="s">
-        <v>581</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1182</v>
-      </c>
-      <c r="C581" t="s">
-        <v>1783</v>
-      </c>
-    </row>
-    <row r="582">
-      <c r="A582" t="s">
-        <v>582</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C582" t="s">
-        <v>1784</v>
-      </c>
-    </row>
-    <row r="583">
-      <c r="A583" t="s">
-        <v>583</v>
-      </c>
-      <c r="B583" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C583" t="s">
-        <v>1785</v>
-      </c>
-    </row>
-    <row r="584">
-      <c r="A584" t="s">
-        <v>584</v>
-      </c>
-      <c r="B584" t="s">
-        <v>1185</v>
-      </c>
-      <c r="C584" t="s">
-        <v>1786</v>
-      </c>
-    </row>
-    <row r="585">
-      <c r="A585" t="s">
-        <v>585</v>
-      </c>
-      <c r="B585" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C585" t="s">
-        <v>1787</v>
-      </c>
-    </row>
-    <row r="586">
-      <c r="A586" t="s">
-        <v>586</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1187</v>
-      </c>
-      <c r="C586" t="s">
-        <v>1788</v>
-      </c>
-    </row>
-    <row r="587">
-      <c r="A587" t="s">
-        <v>587</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C587" t="s">
-        <v>1789</v>
-      </c>
-    </row>
-    <row r="588">
-      <c r="A588" t="s">
-        <v>588</v>
-      </c>
-      <c r="B588" t="s">
-        <v>1189</v>
-      </c>
-      <c r="C588" t="s">
-        <v>1790</v>
-      </c>
-    </row>
-    <row r="589">
-      <c r="A589" t="s">
-        <v>589</v>
-      </c>
-      <c r="B589" t="s">
-        <v>1190</v>
-      </c>
-      <c r="C589" t="s">
-        <v>1791</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="s">
-        <v>590</v>
-      </c>
-      <c r="B590" t="s">
-        <v>1191</v>
-      </c>
-      <c r="C590" t="s">
-        <v>1792</v>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="s">
-        <v>591</v>
-      </c>
-      <c r="B591" t="s">
-        <v>1192</v>
-      </c>
-      <c r="C591" t="s">
-        <v>1793</v>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="s">
-        <v>592</v>
-      </c>
-      <c r="B592" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C592" t="s">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="s">
-        <v>593</v>
-      </c>
-      <c r="B593" t="s">
-        <v>1194</v>
-      </c>
-      <c r="C593" t="s">
-        <v>1795</v>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="s">
-        <v>594</v>
-      </c>
-      <c r="B594" t="s">
-        <v>1195</v>
-      </c>
-      <c r="C594" t="s">
-        <v>1796</v>
-      </c>
-    </row>
-    <row r="595">
-      <c r="A595" t="s">
-        <v>595</v>
-      </c>
-      <c r="B595" t="s">
-        <v>1196</v>
-      </c>
-      <c r="C595" t="s">
-        <v>1797</v>
-      </c>
-    </row>
-    <row r="596">
-      <c r="A596" t="s">
-        <v>596</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C596" t="s">
-        <v>1798</v>
-      </c>
-    </row>
-    <row r="597">
-      <c r="A597" t="s">
-        <v>597</v>
-      </c>
-      <c r="B597" t="s">
-        <v>1198</v>
-      </c>
-      <c r="C597" t="s">
-        <v>1799</v>
-      </c>
-    </row>
-    <row r="598">
-      <c r="A598" t="s">
-        <v>598</v>
-      </c>
-      <c r="B598" t="s">
-        <v>1199</v>
-      </c>
-      <c r="C598" t="s">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="599">
-      <c r="A599" t="s">
-        <v>599</v>
-      </c>
-      <c r="B599" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C599" t="s">
-        <v>1801</v>
-      </c>
-    </row>
-    <row r="600">
-      <c r="A600" t="s">
-        <v>600</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1201</v>
-      </c>
-      <c r="C600" t="s">
-        <v>1802</v>
-      </c>
-    </row>
-    <row r="601">
-      <c r="A601" t="s">
-        <v>601</v>
-      </c>
-      <c r="B601" t="s">
-        <v>1202</v>
-      </c>
-      <c r="C601" t="s">
-        <v>1803</v>
-      </c>
-    </row>
-    <row r="602">
-      <c r="A602" t="s">
-        <v>602</v>
-      </c>
-      <c r="B602" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C602" t="s">
-        <v>1804</v>
+        <v>1663</v>
       </c>
     </row>
   </sheetData>
